--- a/级放数据-n.xlsx
+++ b/级放数据-n.xlsx
@@ -1202,16 +1202,16 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0.120027948606707</v>
+        <v>0.1856382224604144</v>
       </c>
       <c r="L6" t="n">
-        <v>2.712555757395534</v>
+        <v>3.160247455215541</v>
       </c>
       <c r="M6" t="n">
-        <v>0.8240444380201128</v>
+        <v>0.9552649857275275</v>
       </c>
       <c r="N6" t="n">
-        <v>5.93350816693167</v>
+        <v>6.828891562571683</v>
       </c>
       <c r="O6" t="n">
         <v>1.15923964977264</v>
@@ -1342,16 +1342,16 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6.055472837623723</v>
+        <v>6.121083111477429</v>
       </c>
       <c r="L7" t="n">
-        <v>2.712555757395534</v>
+        <v>3.160247455215541</v>
       </c>
       <c r="M7" t="n">
-        <v>0.8240444380201128</v>
+        <v>0.9552649857275275</v>
       </c>
       <c r="N7" t="n">
-        <v>5.93350816693167</v>
+        <v>6.828891562571683</v>
       </c>
       <c r="O7" t="n">
         <v>1.15923964977264</v>
@@ -1482,16 +1482,16 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>2.624147862664316</v>
+        <v>3.153360666968907</v>
       </c>
       <c r="L8" t="n">
-        <v>4.225363833528685</v>
+        <v>5.000023688879127</v>
       </c>
       <c r="M8" t="n">
-        <v>6.646746649596301</v>
+        <v>7.705172258205484</v>
       </c>
       <c r="N8" t="n">
-        <v>10.26699981415326</v>
+        <v>11.81631952485415</v>
       </c>
       <c r="O8" t="n">
         <v>1.15923964977264</v>
@@ -2040,16 +2040,16 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0.1163337224168806</v>
+        <v>0.183765927008937</v>
       </c>
       <c r="L12" t="n">
-        <v>2.805057932270913</v>
+        <v>3.297058974254131</v>
       </c>
       <c r="M12" t="n">
-        <v>0.8527943514608587</v>
+        <v>0.9876587606449714</v>
       </c>
       <c r="N12" t="n">
-        <v>6.140521087993436</v>
+        <v>7.124523171959871</v>
       </c>
       <c r="O12" t="n">
         <v>1.15814411640167</v>
@@ -2180,16 +2180,16 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>6.278942254544305</v>
+        <v>6.34637445913636</v>
       </c>
       <c r="L13" t="n">
-        <v>2.805057932270913</v>
+        <v>3.297058974254131</v>
       </c>
       <c r="M13" t="n">
-        <v>0.8527943514608587</v>
+        <v>0.9876587606449714</v>
       </c>
       <c r="N13" t="n">
-        <v>6.140521087993436</v>
+        <v>7.124523171959871</v>
       </c>
       <c r="O13" t="n">
         <v>1.15814411640167</v>
@@ -2320,16 +2320,16 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>2.71371653267238</v>
+        <v>3.265070193072642</v>
       </c>
       <c r="L14" t="n">
-        <v>4.185444745542783</v>
+        <v>4.99997527598996</v>
       </c>
       <c r="M14" t="n">
-        <v>6.972800164122203</v>
+        <v>8.075507484922728</v>
       </c>
       <c r="N14" t="n">
-        <v>10.16591728924829</v>
+        <v>11.79497835014264</v>
       </c>
       <c r="O14" t="n">
         <v>1.15814411640167</v>
@@ -2460,16 +2460,16 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>1.605224552366571</v>
+        <v>1.822432857146714</v>
       </c>
       <c r="L15" t="n">
-        <v>4.421119601118716</v>
+        <v>5.000000049391526</v>
       </c>
       <c r="M15" t="n">
-        <v>4.276524618092107</v>
+        <v>4.710941227652393</v>
       </c>
       <c r="N15" t="n">
-        <v>9.598765680121502</v>
+        <v>10.75652657666712</v>
       </c>
       <c r="O15" t="n">
         <v>1.10158169269562</v>
@@ -2600,16 +2600,16 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0.911233432904497</v>
+        <v>0.9764676982207674</v>
       </c>
       <c r="L16" t="n">
-        <v>4.385517661454519</v>
+        <v>5.016214762316214</v>
       </c>
       <c r="M16" t="n">
-        <v>2.535848430139658</v>
+        <v>2.6663169607722</v>
       </c>
       <c r="N16" t="n">
-        <v>9.097823154661853</v>
+        <v>10.35921735638524</v>
       </c>
       <c r="O16" t="n">
         <v>1.05144965648651</v>
@@ -2740,16 +2740,16 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>1.605224552366571</v>
+        <v>1.822432857146714</v>
       </c>
       <c r="L17" t="n">
-        <v>4.421119601118716</v>
+        <v>5.000000049391526</v>
       </c>
       <c r="M17" t="n">
-        <v>4.276524618092107</v>
+        <v>4.710941227652393</v>
       </c>
       <c r="N17" t="n">
-        <v>9.598765680121502</v>
+        <v>10.75652657666712</v>
       </c>
       <c r="O17" t="n">
         <v>1.10158169269562</v>
@@ -2880,16 +2880,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0.911233432904497</v>
+        <v>0.9764676982207674</v>
       </c>
       <c r="L18" t="n">
-        <v>4.385517661454519</v>
+        <v>5.016214762316214</v>
       </c>
       <c r="M18" t="n">
-        <v>2.535848430139658</v>
+        <v>2.6663169607722</v>
       </c>
       <c r="N18" t="n">
-        <v>9.097823154661853</v>
+        <v>10.35921735638524</v>
       </c>
       <c r="O18" t="n">
         <v>1.05144965648651</v>
@@ -3020,13 +3020,13 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>4.363169830842152</v>
+        <v>5.00719287264614</v>
       </c>
       <c r="L19" t="n">
         <v>0.393838349798691</v>
       </c>
       <c r="M19" t="n">
-        <v>9.401512329803776</v>
+        <v>10.68955841341175</v>
       </c>
       <c r="N19" t="n">
         <v>1.442270741325387</v>
@@ -3160,13 +3160,13 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>4.382458531340455</v>
+        <v>5.007159261910341</v>
       </c>
       <c r="L20" t="n">
         <v>0.393838349798691</v>
       </c>
       <c r="M20" t="n">
-        <v>9.119443311280987</v>
+        <v>10.36884477242076</v>
       </c>
       <c r="N20" t="n">
         <v>1.314568146479606</v>
@@ -3871,16 +3871,16 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>6.105830776025066</v>
+        <v>6.016762858186009</v>
       </c>
       <c r="L25" t="n">
-        <v>3.767698683201237</v>
+        <v>3.160247389116448</v>
       </c>
       <c r="M25" t="n">
-        <v>1.117120446109142</v>
+        <v>0.938984610431029</v>
       </c>
       <c r="N25" t="n">
-        <v>8.043793495361429</v>
+        <v>6.828890907191852</v>
       </c>
       <c r="O25" t="n">
         <v>0.840540170669556</v>
@@ -4011,16 +4011,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>3.818040948374803</v>
+        <v>3.099618667768598</v>
       </c>
       <c r="L26" t="n">
-        <v>6.051122079267554</v>
+        <v>5.000023446213712</v>
       </c>
       <c r="M26" t="n">
-        <v>9.010699229050843</v>
+        <v>7.573854667838433</v>
       </c>
       <c r="N26" t="n">
-        <v>13.91851565693043</v>
+        <v>11.81631839082274</v>
       </c>
       <c r="O26" t="n">
         <v>0.840540170669556</v>
@@ -4291,16 +4291,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>0.2715423951902419</v>
+        <v>0.1824744773511853</v>
       </c>
       <c r="L28" t="n">
-        <v>3.767698683201237</v>
+        <v>3.160247389116448</v>
       </c>
       <c r="M28" t="n">
-        <v>1.117120446109142</v>
+        <v>0.938984610431029</v>
       </c>
       <c r="N28" t="n">
-        <v>8.043793495361429</v>
+        <v>6.828890907191852</v>
       </c>
       <c r="O28" t="n">
         <v>0.840540170669556</v>
@@ -4709,16 +4709,16 @@
         <v>0</v>
       </c>
       <c r="K31" t="n">
-        <v>6.466991784789119</v>
+        <v>6.373823830159949</v>
       </c>
       <c r="L31" t="n">
-        <v>3.976834137460679</v>
+        <v>3.29705907991503</v>
       </c>
       <c r="M31" t="n">
-        <v>1.178266466676902</v>
+        <v>0.9919305574185634</v>
       </c>
       <c r="N31" t="n">
-        <v>8.48407364977383</v>
+        <v>7.124523534682532</v>
       </c>
       <c r="O31" t="n">
         <v>0.841855883598328</v>
@@ -4849,16 +4849,16 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>0.2777288935921248</v>
+        <v>0.1845609389629553</v>
       </c>
       <c r="L32" t="n">
-        <v>3.976834137460679</v>
+        <v>3.29705907991503</v>
       </c>
       <c r="M32" t="n">
-        <v>1.178266466676902</v>
+        <v>0.9919305574185634</v>
       </c>
       <c r="N32" t="n">
-        <v>8.48407364977383</v>
+        <v>7.124523534682532</v>
       </c>
       <c r="O32" t="n">
         <v>0.841855883598328</v>
@@ -5129,16 +5129,16 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>4.040972206644412</v>
+        <v>3.279192384561456</v>
       </c>
       <c r="L34" t="n">
-        <v>6.125374585342206</v>
+        <v>4.999975468349475</v>
       </c>
       <c r="M34" t="n">
-        <v>9.63399511048647</v>
+        <v>8.11043546632056</v>
       </c>
       <c r="N34" t="n">
-        <v>14.04577718463228</v>
+        <v>11.79497895064682</v>
       </c>
       <c r="O34" t="n">
         <v>0.841855883598328</v>
@@ -5269,16 +5269,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>2.125199097145901</v>
+        <v>2.04733511547269</v>
       </c>
       <c r="L35" t="n">
-        <v>5.735861932402512</v>
+        <v>4.999999949548744</v>
       </c>
       <c r="M35" t="n">
-        <v>5.448035462009376</v>
+        <v>5.292307498662953</v>
       </c>
       <c r="N35" t="n">
-        <v>12.2282508548146</v>
+        <v>10.75652688910707</v>
       </c>
       <c r="O35" t="n">
         <v>0.971415758132935</v>
@@ -5409,16 +5409,16 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>1.231492243370921</v>
+        <v>1.152972354471727</v>
       </c>
       <c r="L36" t="n">
-        <v>5.765820492638668</v>
+        <v>5.016214460496306</v>
       </c>
       <c r="M36" t="n">
-        <v>3.305315688753947</v>
+        <v>3.148275910955558</v>
       </c>
       <c r="N36" t="n">
-        <v>11.85842862262735</v>
+        <v>10.35921655834262</v>
       </c>
       <c r="O36" t="n">
         <v>0.952488720417023</v>
@@ -5549,16 +5549,16 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>2.125199097145901</v>
+        <v>2.04733511547269</v>
       </c>
       <c r="L37" t="n">
-        <v>5.735861932402512</v>
+        <v>4.999999949548744</v>
       </c>
       <c r="M37" t="n">
-        <v>5.448035462009376</v>
+        <v>5.292307498662953</v>
       </c>
       <c r="N37" t="n">
-        <v>12.2282508548146</v>
+        <v>10.75652688910707</v>
       </c>
       <c r="O37" t="n">
         <v>0.971415758132935</v>
@@ -5689,16 +5689,16 @@
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>1.231492243370921</v>
+        <v>1.152972354471727</v>
       </c>
       <c r="L38" t="n">
-        <v>5.765820492638668</v>
+        <v>5.016214460496306</v>
       </c>
       <c r="M38" t="n">
-        <v>3.305315688753947</v>
+        <v>3.148275910955558</v>
       </c>
       <c r="N38" t="n">
-        <v>11.85842862262735</v>
+        <v>10.35921655834262</v>
       </c>
       <c r="O38" t="n">
         <v>0.952488720417023</v>
@@ -5829,13 +5829,13 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>5.857048751996982</v>
+        <v>5.007192827967812</v>
       </c>
       <c r="L39" t="n">
         <v>0.5189983872601341</v>
       </c>
       <c r="M39" t="n">
-        <v>12.38927021573318</v>
+        <v>10.68955836767483</v>
       </c>
       <c r="N39" t="n">
         <v>1.900617827397879</v>
@@ -5969,13 +5969,13 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>5.831517325807026</v>
+        <v>5.007159217232156</v>
       </c>
       <c r="L40" t="n">
         <v>0.5189983872601341</v>
       </c>
       <c r="M40" t="n">
-        <v>12.0175609452058</v>
+        <v>10.36884472805606</v>
       </c>
       <c r="N40" t="n">
         <v>1.732331928353837</v>
@@ -6680,16 +6680,16 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>6.048381526567144</v>
+        <v>6.132138257746684</v>
       </c>
       <c r="L45" t="n">
-        <v>2.588104096399256</v>
+        <v>3.160247457299308</v>
       </c>
       <c r="M45" t="n">
-        <v>0.7894768079070338</v>
+        <v>0.9569902702661165</v>
       </c>
       <c r="N45" t="n">
-        <v>5.684604945061468</v>
+        <v>6.828891666861572</v>
       </c>
       <c r="O45" t="n">
         <v>1.21218287944794</v>
@@ -6820,16 +6820,16 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>0.1022167520213752</v>
+        <v>0.1859734832009165</v>
       </c>
       <c r="L46" t="n">
-        <v>2.588104096399256</v>
+        <v>3.160247457299308</v>
       </c>
       <c r="M46" t="n">
-        <v>0.7894768079070338</v>
+        <v>0.9569902702661165</v>
       </c>
       <c r="N46" t="n">
-        <v>5.684604945061468</v>
+        <v>6.828891666861572</v>
       </c>
       <c r="O46" t="n">
         <v>1.21218287944794</v>
@@ -7100,16 +7100,16 @@
         <v>0</v>
       </c>
       <c r="K48" t="n">
-        <v>2.483473648614113</v>
+        <v>3.159055870473811</v>
       </c>
       <c r="L48" t="n">
-        <v>4.010019894211588</v>
+        <v>5.000023719059699</v>
       </c>
       <c r="M48" t="n">
-        <v>6.367923968394022</v>
+        <v>7.719088412113418</v>
       </c>
       <c r="N48" t="n">
-        <v>9.836312055615126</v>
+        <v>11.81631970531135</v>
       </c>
       <c r="O48" t="n">
         <v>1.21218287944794</v>
@@ -7658,16 +7658,16 @@
         <v>0</v>
       </c>
       <c r="K52" t="n">
-        <v>0.09774020026651099</v>
+        <v>0.1836640713164513</v>
       </c>
       <c r="L52" t="n">
-        <v>2.669937090020247</v>
+        <v>3.297058784720202</v>
       </c>
       <c r="M52" t="n">
-        <v>0.8152633578897048</v>
+        <v>0.9871110999895855</v>
       </c>
       <c r="N52" t="n">
-        <v>5.870280253163523</v>
+        <v>7.124523642563434</v>
       </c>
       <c r="O52" t="n">
         <v>1.2107880115509</v>
@@ -7798,16 +7798,16 @@
         <v>0</v>
       </c>
       <c r="K53" t="n">
-        <v>6.256931541799316</v>
+        <v>6.342855412849256</v>
       </c>
       <c r="L53" t="n">
-        <v>2.669937090020247</v>
+        <v>3.297058784720202</v>
       </c>
       <c r="M53" t="n">
-        <v>0.8152633578897048</v>
+        <v>0.9871110999895855</v>
       </c>
       <c r="N53" t="n">
-        <v>5.870280253163523</v>
+        <v>7.124523642563434</v>
       </c>
       <c r="O53" t="n">
         <v>1.2107880115509</v>
@@ -7938,16 +7938,16 @@
         <v>0</v>
       </c>
       <c r="K54" t="n">
-        <v>2.56071055055417</v>
+        <v>3.263259742082835</v>
       </c>
       <c r="L54" t="n">
-        <v>3.961746164750175</v>
+        <v>4.999975198940535</v>
       </c>
       <c r="M54" t="n">
-        <v>6.665931201300958</v>
+        <v>8.071029584358287</v>
       </c>
       <c r="N54" t="n">
-        <v>9.718521060867932</v>
+        <v>11.79497912924865</v>
       </c>
       <c r="O54" t="n">
         <v>1.2107880115509</v>
@@ -8078,16 +8078,16 @@
         <v>0</v>
       </c>
       <c r="K55" t="n">
-        <v>1.532410675229655</v>
+        <v>1.817418568674479</v>
       </c>
       <c r="L55" t="n">
-        <v>4.254395130700992</v>
+        <v>4.999999703746733</v>
       </c>
       <c r="M55" t="n">
-        <v>4.127963574168376</v>
+        <v>4.697979361058024</v>
       </c>
       <c r="N55" t="n">
-        <v>9.265316728656256</v>
+        <v>10.75652587474774</v>
       </c>
       <c r="O55" t="n">
         <v>1.13808643817902</v>
@@ -8218,16 +8218,16 @@
         <v>0</v>
       </c>
       <c r="K56" t="n">
-        <v>0.8698855597469379</v>
+        <v>0.9538004609078855</v>
       </c>
       <c r="L56" t="n">
-        <v>4.207468658776763</v>
+        <v>5.016214499984978</v>
       </c>
       <c r="M56" t="n">
-        <v>2.436592758015633</v>
+        <v>2.604422560337528</v>
       </c>
       <c r="N56" t="n">
-        <v>8.741725155527199</v>
+        <v>10.35921683794363</v>
       </c>
       <c r="O56" t="n">
         <v>1.06887888908386</v>
@@ -8358,16 +8358,16 @@
         <v>0</v>
       </c>
       <c r="K57" t="n">
-        <v>1.532410675229655</v>
+        <v>1.817418568674479</v>
       </c>
       <c r="L57" t="n">
-        <v>4.254395130700992</v>
+        <v>4.999999703746733</v>
       </c>
       <c r="M57" t="n">
-        <v>4.127963574168376</v>
+        <v>4.697979361058024</v>
       </c>
       <c r="N57" t="n">
-        <v>9.265316728656256</v>
+        <v>10.75652587474774</v>
       </c>
       <c r="O57" t="n">
         <v>1.13808643817902</v>
@@ -8498,16 +8498,16 @@
         <v>0</v>
       </c>
       <c r="K58" t="n">
-        <v>0.8698855597469379</v>
+        <v>0.9538004609078855</v>
       </c>
       <c r="L58" t="n">
-        <v>4.207468658776763</v>
+        <v>5.016214499984978</v>
       </c>
       <c r="M58" t="n">
-        <v>2.436592758015633</v>
+        <v>2.604422560337528</v>
       </c>
       <c r="N58" t="n">
-        <v>8.741725155527199</v>
+        <v>10.35921683794363</v>
       </c>
       <c r="O58" t="n">
         <v>1.06887888908386</v>
@@ -8638,13 +8638,13 @@
         <v>0</v>
       </c>
       <c r="K59" t="n">
-        <v>4.240399759577954</v>
+        <v>5.007192825903227</v>
       </c>
       <c r="L59" t="n">
         <v>0.383552415663379</v>
       </c>
       <c r="M59" t="n">
-        <v>9.155971648846435</v>
+        <v>10.68955778149698</v>
       </c>
       <c r="N59" t="n">
         <v>1.404602744142931</v>
@@ -8778,13 +8778,13 @@
         <v>0</v>
       </c>
       <c r="K60" t="n">
-        <v>4.263371869630445</v>
+        <v>5.007159215169414</v>
       </c>
       <c r="L60" t="n">
         <v>0.383552415663379</v>
       </c>
       <c r="M60" t="n">
-        <v>8.881269468387082</v>
+        <v>10.36884415946502</v>
       </c>
       <c r="N60" t="n">
         <v>1.280235376758272</v>
@@ -9489,16 +9489,16 @@
         <v>0</v>
       </c>
       <c r="K65" t="n">
-        <v>6.043444174073374</v>
+        <v>6.143974918052609</v>
       </c>
       <c r="L65" t="n">
-        <v>2.473973972544413</v>
+        <v>3.160247508438432</v>
       </c>
       <c r="M65" t="n">
-        <v>0.7577760054688389</v>
+        <v>0.9588374934273092</v>
       </c>
       <c r="N65" t="n">
-        <v>5.456344233033307</v>
+        <v>6.828891304821346</v>
       </c>
       <c r="O65" t="n">
         <v>1.26533102989197</v>
@@ -9629,16 +9629,16 @@
         <v>0</v>
       </c>
       <c r="K66" t="n">
-        <v>2.354272266354419</v>
+        <v>3.165153761205422</v>
       </c>
       <c r="L66" t="n">
-        <v>3.812535585133205</v>
+        <v>5.000023672661329</v>
       </c>
       <c r="M66" t="n">
-        <v>6.112225133872622</v>
+        <v>7.733988123574629</v>
       </c>
       <c r="N66" t="n">
-        <v>9.441342903801603</v>
+        <v>11.81631907885785</v>
       </c>
       <c r="O66" t="n">
         <v>1.26533102989197</v>
@@ -9769,16 +9769,16 @@
         <v>0</v>
       </c>
       <c r="K67" t="n">
-        <v>0.08580186037899437</v>
+        <v>0.1863326043582295</v>
       </c>
       <c r="L67" t="n">
-        <v>2.473973972544413</v>
+        <v>3.160247508438432</v>
       </c>
       <c r="M67" t="n">
-        <v>0.7577760054688389</v>
+        <v>0.9588374934273092</v>
       </c>
       <c r="N67" t="n">
-        <v>5.456344233033307</v>
+        <v>6.828891304821346</v>
       </c>
       <c r="O67" t="n">
         <v>1.26533102989197</v>
@@ -10327,16 +10327,16 @@
         <v>0</v>
       </c>
       <c r="K71" t="n">
-        <v>6.287572876320687</v>
+        <v>6.391403950185373</v>
       </c>
       <c r="L71" t="n">
-        <v>2.568198128321449</v>
+        <v>3.297058996595117</v>
       </c>
       <c r="M71" t="n">
-        <v>0.7870043505527924</v>
+        <v>0.9946664982821662</v>
       </c>
       <c r="N71" t="n">
-        <v>5.666802087318711</v>
+        <v>7.124523823866047</v>
       </c>
       <c r="O71" t="n">
         <v>1.26386404037476</v>
@@ -10467,16 +10467,16 @@
         <v>0</v>
       </c>
       <c r="K72" t="n">
-        <v>0.08123877269563212</v>
+        <v>0.1850698465603191</v>
       </c>
       <c r="L72" t="n">
-        <v>2.568198128321449</v>
+        <v>3.297058996595117</v>
       </c>
       <c r="M72" t="n">
-        <v>0.7870043505527924</v>
+        <v>0.9946664982821662</v>
       </c>
       <c r="N72" t="n">
-        <v>5.666802087318711</v>
+        <v>7.124523823866047</v>
       </c>
       <c r="O72" t="n">
         <v>1.26386404037476</v>
@@ -10747,16 +10747,16 @@
         <v>0</v>
       </c>
       <c r="K74" t="n">
-        <v>2.439270992765666</v>
+        <v>3.288236898372867</v>
       </c>
       <c r="L74" t="n">
-        <v>3.793312502251141</v>
+        <v>4.999975454150725</v>
       </c>
       <c r="M74" t="n">
-        <v>6.434873841857604</v>
+        <v>8.132805653072007</v>
       </c>
       <c r="N74" t="n">
-        <v>9.381653525604364</v>
+        <v>11.79497942940353</v>
       </c>
       <c r="O74" t="n">
         <v>1.26386404037476</v>
@@ -10887,16 +10887,16 @@
         <v>0</v>
       </c>
       <c r="K75" t="n">
-        <v>1.474983192770109</v>
+        <v>1.824988844777497</v>
       </c>
       <c r="L75" t="n">
-        <v>4.13046704896146</v>
+        <v>4.999999930489483</v>
       </c>
       <c r="M75" t="n">
-        <v>4.017536972588571</v>
+        <v>4.717548276603347</v>
       </c>
       <c r="N75" t="n">
-        <v>9.017461479809455</v>
+        <v>10.7565272428655</v>
       </c>
       <c r="O75" t="n">
         <v>1.17423892021179</v>
@@ -11027,16 +11027,16 @@
         <v>0</v>
       </c>
       <c r="K76" t="n">
-        <v>0.8312736534436449</v>
+        <v>0.9343095692264604</v>
       </c>
       <c r="L76" t="n">
-        <v>4.043398012653603</v>
+        <v>5.016214773516917</v>
       </c>
       <c r="M76" t="n">
-        <v>2.345129346741383</v>
+        <v>2.551201178307014</v>
       </c>
       <c r="N76" t="n">
-        <v>8.413583326936362</v>
+        <v>10.35921684866299</v>
       </c>
       <c r="O76" t="n">
         <v>1.08787226676941</v>
@@ -11167,16 +11167,16 @@
         <v>0</v>
       </c>
       <c r="K77" t="n">
-        <v>1.474983192770109</v>
+        <v>1.824988844777497</v>
       </c>
       <c r="L77" t="n">
-        <v>4.13046704896146</v>
+        <v>4.999999930489483</v>
       </c>
       <c r="M77" t="n">
-        <v>4.017536972588571</v>
+        <v>4.717548276603347</v>
       </c>
       <c r="N77" t="n">
-        <v>9.017461479809455</v>
+        <v>10.7565272428655</v>
       </c>
       <c r="O77" t="n">
         <v>1.17423892021179</v>
@@ -11307,16 +11307,16 @@
         <v>0</v>
       </c>
       <c r="K78" t="n">
-        <v>0.8312736534436449</v>
+        <v>0.9343095692264604</v>
       </c>
       <c r="L78" t="n">
-        <v>4.043398012653603</v>
+        <v>5.016214773516917</v>
       </c>
       <c r="M78" t="n">
-        <v>2.345129346741383</v>
+        <v>2.551201178307014</v>
       </c>
       <c r="N78" t="n">
-        <v>8.413583326936362</v>
+        <v>10.35921684866299</v>
       </c>
       <c r="O78" t="n">
         <v>1.08787226676941</v>
@@ -11447,13 +11447,13 @@
         <v>0</v>
       </c>
       <c r="K79" t="n">
-        <v>4.15037134651565</v>
+        <v>5.007159143687079</v>
       </c>
       <c r="L79" t="n">
         <v>0.3737921824323565</v>
       </c>
       <c r="M79" t="n">
-        <v>8.655268385199816</v>
+        <v>10.36884397954267</v>
       </c>
       <c r="N79" t="n">
         <v>1.247657310873444</v>
@@ -11587,13 +11587,13 @@
         <v>0</v>
       </c>
       <c r="K80" t="n">
-        <v>4.123904075036969</v>
+        <v>5.007192754420307</v>
       </c>
       <c r="L80" t="n">
         <v>0.3737921824323565</v>
       </c>
       <c r="M80" t="n">
-        <v>8.922980237242864</v>
+        <v>10.68955759600954</v>
       </c>
       <c r="N80" t="n">
         <v>1.368859909995848</v>
@@ -12298,16 +12298,16 @@
         <v>0</v>
       </c>
       <c r="K85" t="n">
-        <v>6.068645204836781</v>
+        <v>6.092545893926756</v>
       </c>
       <c r="L85" t="n">
-        <v>2.996850826852119</v>
+        <v>3.160247596037741</v>
       </c>
       <c r="M85" t="n">
-        <v>0.903010033444816</v>
+        <v>0.9508114116247663</v>
       </c>
       <c r="N85" t="n">
-        <v>6.502097655242327</v>
+        <v>6.828891193613571</v>
       </c>
       <c r="O85" t="n">
         <v>1.05293560028076</v>
@@ -12578,16 +12578,16 @@
         <v>0</v>
       </c>
       <c r="K87" t="n">
-        <v>0.1608721598013165</v>
+        <v>0.1847728488912917</v>
       </c>
       <c r="L87" t="n">
-        <v>2.996850826852119</v>
+        <v>3.160247596037741</v>
       </c>
       <c r="M87" t="n">
-        <v>0.903010033444816</v>
+        <v>0.9508114116247663</v>
       </c>
       <c r="N87" t="n">
-        <v>6.502097655242327</v>
+        <v>6.828891193613571</v>
       </c>
       <c r="O87" t="n">
         <v>1.05293560028076</v>
@@ -12718,16 +12718,16 @@
         <v>0</v>
       </c>
       <c r="K88" t="n">
-        <v>2.94587629102863</v>
+        <v>3.138659371409008</v>
       </c>
       <c r="L88" t="n">
-        <v>4.717291398656631</v>
+        <v>5.000023730300077</v>
       </c>
       <c r="M88" t="n">
-        <v>7.283683545965125</v>
+        <v>7.669249706725884</v>
       </c>
       <c r="N88" t="n">
-        <v>11.25085422314345</v>
+        <v>11.81631888643034</v>
       </c>
       <c r="O88" t="n">
         <v>1.05293560028076</v>
@@ -13136,16 +13136,16 @@
         <v>0</v>
       </c>
       <c r="K91" t="n">
-        <v>3.066461566704281</v>
+        <v>3.26861325175112</v>
       </c>
       <c r="L91" t="n">
-        <v>4.700947260391628</v>
+        <v>4.99997540755238</v>
       </c>
       <c r="M91" t="n">
-        <v>7.679966859359406</v>
+        <v>8.084270229453084</v>
       </c>
       <c r="N91" t="n">
-        <v>11.19692319279944</v>
+        <v>11.79497948712094</v>
       </c>
       <c r="O91" t="n">
         <v>1.05264389514923</v>
@@ -13416,16 +13416,16 @@
         <v>0</v>
       </c>
       <c r="K93" t="n">
-        <v>0.1592417013411801</v>
+        <v>0.1839654580943526</v>
       </c>
       <c r="L93" t="n">
-        <v>3.116436909111282</v>
+        <v>3.297058941663741</v>
       </c>
       <c r="M93" t="n">
-        <v>0.9392829570489765</v>
+        <v>0.9887304705553217</v>
       </c>
       <c r="N93" t="n">
-        <v>6.763279793624192</v>
+        <v>7.124523858729108</v>
       </c>
       <c r="O93" t="n">
         <v>1.05264389514923</v>
@@ -13556,16 +13556,16 @@
         <v>0</v>
       </c>
       <c r="K94" t="n">
-        <v>6.328537288654744</v>
+        <v>6.353261045407915</v>
       </c>
       <c r="L94" t="n">
-        <v>3.116436909111282</v>
+        <v>3.297058941663741</v>
       </c>
       <c r="M94" t="n">
-        <v>0.9392829570489765</v>
+        <v>0.9887304705553217</v>
       </c>
       <c r="N94" t="n">
-        <v>6.763279793624192</v>
+        <v>7.124523858729108</v>
       </c>
       <c r="O94" t="n">
         <v>1.05264389514923</v>
@@ -13696,16 +13696,16 @@
         <v>0</v>
       </c>
       <c r="K95" t="n">
-        <v>1.76520692194372</v>
+        <v>1.840566603588261</v>
       </c>
       <c r="L95" t="n">
-        <v>4.792108437216192</v>
+        <v>4.999999890923097</v>
       </c>
       <c r="M95" t="n">
-        <v>4.607097098136991</v>
+        <v>4.757816461426073</v>
       </c>
       <c r="N95" t="n">
-        <v>10.34074381882402</v>
+        <v>10.75652672623783</v>
       </c>
       <c r="O95" t="n">
         <v>1.03271460533142</v>
@@ -13836,16 +13836,16 @@
         <v>0</v>
       </c>
       <c r="K96" t="n">
-        <v>1.004896641890486</v>
+        <v>1.026712377902302</v>
       </c>
       <c r="L96" t="n">
-        <v>4.787399165305312</v>
+        <v>5.016214512843634</v>
       </c>
       <c r="M96" t="n">
-        <v>2.759882332349006</v>
+        <v>2.803513804372638</v>
       </c>
       <c r="N96" t="n">
-        <v>9.90158602894263</v>
+        <v>10.35921672401927</v>
       </c>
       <c r="O96" t="n">
         <v>1.01580917835236</v>
@@ -13976,16 +13976,16 @@
         <v>0</v>
       </c>
       <c r="K97" t="n">
-        <v>1.76520692194372</v>
+        <v>1.840566603588261</v>
       </c>
       <c r="L97" t="n">
-        <v>4.792108437216192</v>
+        <v>4.999999890923097</v>
       </c>
       <c r="M97" t="n">
-        <v>4.607097098136991</v>
+        <v>4.757816461426073</v>
       </c>
       <c r="N97" t="n">
-        <v>10.34074381882402</v>
+        <v>10.75652672623783</v>
       </c>
       <c r="O97" t="n">
         <v>1.03271460533142</v>
@@ -14116,16 +14116,16 @@
         <v>0</v>
       </c>
       <c r="K98" t="n">
-        <v>1.004896641890486</v>
+        <v>1.026712377902302</v>
       </c>
       <c r="L98" t="n">
-        <v>4.787399165305312</v>
+        <v>5.016214512843634</v>
       </c>
       <c r="M98" t="n">
-        <v>2.759882332349006</v>
+        <v>2.803513804372638</v>
       </c>
       <c r="N98" t="n">
-        <v>9.90158602894263</v>
+        <v>10.35921672401927</v>
       </c>
       <c r="O98" t="n">
         <v>1.01580917835236</v>
@@ -14256,13 +14256,13 @@
         <v>0</v>
       </c>
       <c r="K99" t="n">
-        <v>4.781331787035608</v>
+        <v>5.007159087405654</v>
       </c>
       <c r="L99" t="n">
         <v>0.428290374637546</v>
       </c>
       <c r="M99" t="n">
-        <v>9.91719012196455</v>
+        <v>10.36884472270464</v>
       </c>
       <c r="N99" t="n">
         <v>1.429563383632191</v>
@@ -14551,13 +14551,13 @@
         <v>0</v>
       </c>
       <c r="K101" t="n">
-        <v>4.77438044454584</v>
+        <v>5.00719269814129</v>
       </c>
       <c r="L101" t="n">
         <v>0.428290374637546</v>
       </c>
       <c r="M101" t="n">
-        <v>10.22393385496699</v>
+        <v>10.68955836215789</v>
       </c>
       <c r="N101" t="n">
         <v>1.568437092138848</v>
@@ -18096,16 +18096,16 @@
         <v>0</v>
       </c>
       <c r="K126" t="n">
-        <v>0.2103097953878185</v>
+        <v>0.1837659616077031</v>
       </c>
       <c r="L126" t="n">
-        <v>3.341424133878678</v>
+        <v>3.160247350791383</v>
       </c>
       <c r="M126" t="n">
-        <v>0.9987186289329584</v>
+        <v>0.9456309613727275</v>
       </c>
       <c r="N126" t="n">
-        <v>7.19124463175598</v>
+        <v>6.828891065581388</v>
       </c>
       <c r="O126" t="n">
         <v>0.946844220161438</v>
@@ -18236,16 +18236,16 @@
         <v>0</v>
       </c>
       <c r="K127" t="n">
-        <v>6.085894623090158</v>
+        <v>6.059350789310042</v>
       </c>
       <c r="L127" t="n">
-        <v>3.341424133878678</v>
+        <v>3.160247350791383</v>
       </c>
       <c r="M127" t="n">
-        <v>0.9987186289329584</v>
+        <v>0.9456309613727275</v>
       </c>
       <c r="N127" t="n">
-        <v>7.19124463175598</v>
+        <v>6.828891065581388</v>
       </c>
       <c r="O127" t="n">
         <v>0.946844220161438</v>
@@ -18376,16 +18376,16 @@
         <v>0</v>
       </c>
       <c r="K128" t="n">
-        <v>3.335661074421727</v>
+        <v>3.121558375458886</v>
       </c>
       <c r="L128" t="n">
-        <v>5.313521291290356</v>
+        <v>5.000023450560482</v>
       </c>
       <c r="M128" t="n">
-        <v>8.055669566436087</v>
+        <v>7.627464168510407</v>
       </c>
       <c r="N128" t="n">
-        <v>12.4433143463506</v>
+        <v>11.81631866489085</v>
       </c>
       <c r="O128" t="n">
         <v>0.946844220161438</v>
@@ -18794,16 +18794,16 @@
         <v>0</v>
       </c>
       <c r="K131" t="n">
-        <v>3.498632854137234</v>
+        <v>3.273698976031967</v>
       </c>
       <c r="L131" t="n">
-        <v>5.332781749218016</v>
+        <v>4.999975274647607</v>
       </c>
       <c r="M131" t="n">
-        <v>8.546716609476912</v>
+        <v>8.096848853266374</v>
       </c>
       <c r="N131" t="n">
-        <v>12.46059145558844</v>
+        <v>11.79497850644763</v>
       </c>
       <c r="O131" t="n">
         <v>0.947363674640656</v>
@@ -19074,16 +19074,16 @@
         <v>0</v>
       </c>
       <c r="K133" t="n">
-        <v>6.390656377844095</v>
+        <v>6.363146290621552</v>
       </c>
       <c r="L133" t="n">
-        <v>3.498084112873326</v>
+        <v>3.297058950345031</v>
       </c>
       <c r="M133" t="n">
-        <v>1.045289048379915</v>
+        <v>0.9902688739348303</v>
       </c>
       <c r="N133" t="n">
-        <v>7.526573591429395</v>
+        <v>7.124523266372803</v>
       </c>
       <c r="O133" t="n">
         <v>0.947363674640656</v>
@@ -19214,16 +19214,16 @@
         <v>0</v>
       </c>
       <c r="K134" t="n">
-        <v>0.2117617486649124</v>
+        <v>0.1842516614423703</v>
       </c>
       <c r="L134" t="n">
-        <v>3.498084112873326</v>
+        <v>3.297058950345031</v>
       </c>
       <c r="M134" t="n">
-        <v>1.045289048379915</v>
+        <v>0.9902688739348303</v>
       </c>
       <c r="N134" t="n">
-        <v>7.526573591429395</v>
+        <v>7.124523266372803</v>
       </c>
       <c r="O134" t="n">
         <v>0.947363674640656</v>
@@ -19354,16 +19354,16 @@
         <v>0</v>
       </c>
       <c r="K135" t="n">
-        <v>1.943700921121643</v>
+        <v>1.887851780460884</v>
       </c>
       <c r="L135" t="n">
-        <v>5.223785062014816</v>
+        <v>4.999999843358227</v>
       </c>
       <c r="M135" t="n">
-        <v>4.99174569228316</v>
+        <v>4.880047410961642</v>
       </c>
       <c r="N135" t="n">
-        <v>11.204097138194</v>
+        <v>10.75652670088082</v>
       </c>
       <c r="O135" t="n">
         <v>0.977623403072357</v>
@@ -19494,16 +19494,16 @@
         <v>0</v>
       </c>
       <c r="K136" t="n">
-        <v>1.112560030770025</v>
+        <v>1.08864245849726</v>
       </c>
       <c r="L136" t="n">
-        <v>5.25482281917683</v>
+        <v>5.016214760909445</v>
       </c>
       <c r="M136" t="n">
-        <v>3.020453562380276</v>
+        <v>2.972618417834746</v>
       </c>
       <c r="N136" t="n">
-        <v>10.83643329419762</v>
+        <v>10.35921717766285</v>
       </c>
       <c r="O136" t="n">
         <v>0.984162926673889</v>
@@ -19634,16 +19634,16 @@
         <v>0</v>
       </c>
       <c r="K137" t="n">
-        <v>1.943700921121643</v>
+        <v>1.887851780460884</v>
       </c>
       <c r="L137" t="n">
-        <v>5.223785062014816</v>
+        <v>4.999999843358227</v>
       </c>
       <c r="M137" t="n">
-        <v>4.99174569228316</v>
+        <v>4.880047410961642</v>
       </c>
       <c r="N137" t="n">
-        <v>11.204097138194</v>
+        <v>10.75652670088082</v>
       </c>
       <c r="O137" t="n">
         <v>0.977623403072357</v>
@@ -19774,16 +19774,16 @@
         <v>0</v>
       </c>
       <c r="K138" t="n">
-        <v>1.112560030770025</v>
+        <v>1.08864245849726</v>
       </c>
       <c r="L138" t="n">
-        <v>5.25482281917683</v>
+        <v>5.016214760909445</v>
       </c>
       <c r="M138" t="n">
-        <v>3.020453562380276</v>
+        <v>2.972618417834746</v>
       </c>
       <c r="N138" t="n">
-        <v>10.83643329419762</v>
+        <v>10.35921717766285</v>
       </c>
       <c r="O138" t="n">
         <v>0.984162926673889</v>
@@ -19914,13 +19914,13 @@
         <v>0</v>
       </c>
       <c r="K139" t="n">
-        <v>5.256680231865852</v>
+        <v>5.007159309477699</v>
       </c>
       <c r="L139" t="n">
         <v>0.4693477816685573</v>
       </c>
       <c r="M139" t="n">
-        <v>10.86788650823287</v>
+        <v>10.36884466345657</v>
       </c>
       <c r="N139" t="n">
         <v>1.566606308699298</v>
@@ -20209,13 +20209,13 @@
         <v>0</v>
       </c>
       <c r="K141" t="n">
-        <v>5.264431651603067</v>
+        <v>5.007192920213144</v>
       </c>
       <c r="L141" t="n">
         <v>0.4693477816685573</v>
       </c>
       <c r="M141" t="n">
-        <v>11.20403576385709</v>
+        <v>10.68955830107724</v>
       </c>
       <c r="N141" t="n">
         <v>1.718792934594979</v>
@@ -20905,16 +20905,16 @@
         <v>0</v>
       </c>
       <c r="K146" t="n">
-        <v>2.777486753990543</v>
+        <v>3.146166693008678</v>
       </c>
       <c r="L146" t="n">
-        <v>4.459757097839698</v>
+        <v>5.000023740258363</v>
       </c>
       <c r="M146" t="n">
-        <v>6.950233630733886</v>
+        <v>7.687593508770156</v>
       </c>
       <c r="N146" t="n">
-        <v>10.73578566431453</v>
+        <v>11.81631894915186</v>
       </c>
       <c r="O146" t="n">
         <v>1.10609138011932</v>
@@ -21045,16 +21045,16 @@
         <v>0</v>
       </c>
       <c r="K147" t="n">
-        <v>6.061410637052886</v>
+        <v>6.107118510268715</v>
       </c>
       <c r="L147" t="n">
-        <v>2.848016506998995</v>
+        <v>3.160247596230419</v>
       </c>
       <c r="M147" t="n">
-        <v>0.8616698767500713</v>
+        <v>0.9530856231817307</v>
       </c>
       <c r="N147" t="n">
-        <v>6.204429051398762</v>
+        <v>6.82889122986161</v>
       </c>
       <c r="O147" t="n">
         <v>1.10609138011932</v>
@@ -21185,16 +21185,16 @@
         <v>0</v>
       </c>
       <c r="K148" t="n">
-        <v>0.1395070025328332</v>
+        <v>0.1852148757486629</v>
       </c>
       <c r="L148" t="n">
-        <v>2.848016506998995</v>
+        <v>3.160247596230419</v>
       </c>
       <c r="M148" t="n">
-        <v>0.8616698767500713</v>
+        <v>0.9530856231817307</v>
       </c>
       <c r="N148" t="n">
-        <v>6.204429051398762</v>
+        <v>6.82889122986161</v>
       </c>
       <c r="O148" t="n">
         <v>1.10609138011932</v>
@@ -21603,16 +21603,16 @@
         <v>0</v>
       </c>
       <c r="K151" t="n">
-        <v>2.881497605578446</v>
+        <v>3.26709243841153</v>
       </c>
       <c r="L151" t="n">
-        <v>4.430756184726667</v>
+        <v>4.999975338595132</v>
       </c>
       <c r="M151" t="n">
-        <v>7.309318996415771</v>
+        <v>8.08050866208194</v>
       </c>
       <c r="N151" t="n">
-        <v>10.65654121863799</v>
+        <v>11.79497952637492</v>
       </c>
       <c r="O151" t="n">
         <v>1.10550773143768</v>
@@ -21743,16 +21743,16 @@
         <v>0</v>
       </c>
       <c r="K152" t="n">
-        <v>0.1367205114035609</v>
+        <v>0.1838799147497981</v>
       </c>
       <c r="L152" t="n">
-        <v>2.953233305747611</v>
+        <v>3.297058867039145</v>
       </c>
       <c r="M152" t="n">
-        <v>0.8939516129032259</v>
+        <v>0.9882704195957003</v>
       </c>
       <c r="N152" t="n">
-        <v>6.436872759856631</v>
+        <v>7.124523882439698</v>
       </c>
       <c r="O152" t="n">
         <v>1.10550773143768</v>
@@ -22023,16 +22023,16 @@
         <v>0</v>
       </c>
       <c r="K154" t="n">
-        <v>6.303145558727062</v>
+        <v>6.350304962073298</v>
       </c>
       <c r="L154" t="n">
-        <v>2.953233305747611</v>
+        <v>3.297058867039145</v>
       </c>
       <c r="M154" t="n">
-        <v>0.8939516129032259</v>
+        <v>0.9882704195957003</v>
       </c>
       <c r="N154" t="n">
-        <v>6.436872759856631</v>
+        <v>7.124523882439698</v>
       </c>
       <c r="O154" t="n">
         <v>1.10550773143768</v>
@@ -22163,16 +22163,16 @@
         <v>0</v>
       </c>
       <c r="K155" t="n">
-        <v>1.684656657342492</v>
+        <v>1.822897200498934</v>
       </c>
       <c r="L155" t="n">
-        <v>4.599711502179723</v>
+        <v>4.999999973105732</v>
       </c>
       <c r="M155" t="n">
-        <v>4.435660316812042</v>
+        <v>4.712141403124927</v>
       </c>
       <c r="N155" t="n">
-        <v>9.955949706817584</v>
+        <v>10.7565266486696</v>
       </c>
       <c r="O155" t="n">
         <v>1.06233143806458</v>
@@ -22303,16 +22303,16 @@
         <v>0</v>
       </c>
       <c r="K156" t="n">
-        <v>0.9560928464577029</v>
+        <v>1.001060076659652</v>
       </c>
       <c r="L156" t="n">
-        <v>4.578688698820331</v>
+        <v>5.016214715066679</v>
       </c>
       <c r="M156" t="n">
-        <v>2.643533941937438</v>
+        <v>2.733468402341336</v>
       </c>
       <c r="N156" t="n">
-        <v>9.484164755765153</v>
+        <v>10.35921678825785</v>
       </c>
       <c r="O156" t="n">
         <v>1.03402054309845</v>
@@ -22443,16 +22443,16 @@
         <v>0</v>
       </c>
       <c r="K157" t="n">
-        <v>1.684656657342492</v>
+        <v>1.822897200498934</v>
       </c>
       <c r="L157" t="n">
-        <v>4.599711502179723</v>
+        <v>4.999999973105732</v>
       </c>
       <c r="M157" t="n">
-        <v>4.435660316812042</v>
+        <v>4.712141403124927</v>
       </c>
       <c r="N157" t="n">
-        <v>9.955949706817584</v>
+        <v>10.7565266486696</v>
       </c>
       <c r="O157" t="n">
         <v>1.06233143806458</v>
@@ -22583,16 +22583,16 @@
         <v>0</v>
       </c>
       <c r="K158" t="n">
-        <v>0.9560928464577029</v>
+        <v>1.001060076659652</v>
       </c>
       <c r="L158" t="n">
-        <v>4.578688698820331</v>
+        <v>5.016214715066679</v>
       </c>
       <c r="M158" t="n">
-        <v>2.643533941937438</v>
+        <v>2.733468402341336</v>
       </c>
       <c r="N158" t="n">
-        <v>9.484164755765153</v>
+        <v>10.35921678825785</v>
       </c>
       <c r="O158" t="n">
         <v>1.03402054309845</v>
@@ -22723,13 +22723,13 @@
         <v>0</v>
       </c>
       <c r="K159" t="n">
-        <v>4.573537875259597</v>
+        <v>5.007159177923358</v>
       </c>
       <c r="L159" t="n">
         <v>0.4103424910681286</v>
       </c>
       <c r="M159" t="n">
-        <v>9.501601576937292</v>
+        <v>10.36884418226481</v>
       </c>
       <c r="N159" t="n">
         <v>1.369656276949612</v>
@@ -22863,13 +22863,13 @@
         <v>0</v>
       </c>
       <c r="K160" t="n">
-        <v>4.560159358621449</v>
+        <v>5.007192788657242</v>
       </c>
       <c r="L160" t="n">
         <v>0.4103424910681286</v>
       </c>
       <c r="M160" t="n">
-        <v>9.795490944930393</v>
+        <v>10.68955780500198</v>
       </c>
       <c r="N160" t="n">
         <v>1.502710360970802</v>
@@ -23714,16 +23714,16 @@
         <v>0</v>
       </c>
       <c r="K166" t="n">
-        <v>3.563078015004714</v>
+        <v>3.110977196444626</v>
       </c>
       <c r="L166" t="n">
-        <v>5.661180214213315</v>
+        <v>5.000023500123811</v>
       </c>
       <c r="M166" t="n">
-        <v>8.505810911512423</v>
+        <v>7.601609274392247</v>
       </c>
       <c r="N166" t="n">
-        <v>13.13863212358559</v>
+        <v>11.81631869540658</v>
       </c>
       <c r="O166" t="n">
         <v>0.893696010112762</v>
@@ -23854,16 +23854,16 @@
         <v>0</v>
       </c>
       <c r="K167" t="n">
-        <v>0.2391932006430784</v>
+        <v>0.1831430478993436</v>
       </c>
       <c r="L167" t="n">
-        <v>3.542343317847859</v>
+        <v>3.160247395603478</v>
       </c>
       <c r="M167" t="n">
-        <v>1.054525851817793</v>
+        <v>0.9424255463303228</v>
       </c>
       <c r="N167" t="n">
-        <v>7.593082927705813</v>
+        <v>6.828891083217052</v>
       </c>
       <c r="O167" t="n">
         <v>0.893696010112762</v>
@@ -23994,16 +23994,16 @@
         <v>0</v>
       </c>
       <c r="K168" t="n">
-        <v>6.094861497733666</v>
+        <v>6.038811344989931</v>
       </c>
       <c r="L168" t="n">
-        <v>3.542343317847859</v>
+        <v>3.160247395603478</v>
       </c>
       <c r="M168" t="n">
-        <v>1.054525851817793</v>
+        <v>0.9424255463303228</v>
       </c>
       <c r="N168" t="n">
-        <v>7.593082927705813</v>
+        <v>6.828891083217052</v>
       </c>
       <c r="O168" t="n">
         <v>0.893696010112762</v>
@@ -24412,16 +24412,16 @@
         <v>0</v>
       </c>
       <c r="K171" t="n">
-        <v>3.753691165563784</v>
+        <v>3.275888101716978</v>
       </c>
       <c r="L171" t="n">
-        <v>5.705396154151277</v>
+        <v>4.999975352150704</v>
       </c>
       <c r="M171" t="n">
-        <v>9.057869226541115</v>
+        <v>8.102263098847502</v>
       </c>
       <c r="N171" t="n">
-        <v>13.20582079028165</v>
+        <v>11.79497918628051</v>
       </c>
       <c r="O171" t="n">
         <v>0.894499897956848</v>
@@ -24552,16 +24552,16 @@
         <v>0</v>
       </c>
       <c r="K172" t="n">
-        <v>6.425838031255545</v>
+        <v>6.367401284988841</v>
       </c>
       <c r="L172" t="n">
-        <v>3.723154400212787</v>
+        <v>3.297058929696319</v>
       </c>
       <c r="M172" t="n">
-        <v>1.107804544924575</v>
+        <v>0.9909310523911647</v>
       </c>
       <c r="N172" t="n">
-        <v>7.976714618045337</v>
+        <v>7.1245236770124</v>
       </c>
       <c r="O172" t="n">
         <v>0.894499897956848</v>
@@ -24832,16 +24832,16 @@
         <v>0</v>
       </c>
       <c r="K174" t="n">
-        <v>0.2428116647118037</v>
+        <v>0.1843749184450986</v>
       </c>
       <c r="L174" t="n">
-        <v>3.723154400212787</v>
+        <v>3.297058929696319</v>
       </c>
       <c r="M174" t="n">
-        <v>1.107804544924575</v>
+        <v>0.9909310523911647</v>
       </c>
       <c r="N174" t="n">
-        <v>7.976714618045337</v>
+        <v>7.1245236770124</v>
       </c>
       <c r="O174" t="n">
         <v>0.894499897956848</v>
@@ -24972,16 +24972,16 @@
         <v>0</v>
       </c>
       <c r="K175" t="n">
-        <v>2.032513868138487</v>
+        <v>1.957166961799217</v>
       </c>
       <c r="L175" t="n">
-        <v>5.468633017504181</v>
+        <v>5.000000043514281</v>
       </c>
       <c r="M175" t="n">
-        <v>5.209919086801799</v>
+        <v>5.059225274123258</v>
       </c>
       <c r="N175" t="n">
-        <v>11.69379273886036</v>
+        <v>10.75652679088056</v>
       </c>
       <c r="O175" t="n">
         <v>0.971075594425201</v>
@@ -25112,16 +25112,16 @@
         <v>0</v>
       </c>
       <c r="K176" t="n">
-        <v>1.169563504387193</v>
+        <v>1.119564951094649</v>
       </c>
       <c r="L176" t="n">
-        <v>5.499858377860274</v>
+        <v>5.016214704227559</v>
       </c>
       <c r="M176" t="n">
-        <v>3.157051696075646</v>
+        <v>3.057054589490557</v>
       </c>
       <c r="N176" t="n">
-        <v>11.32650424987728</v>
+        <v>10.35921690261185</v>
       </c>
       <c r="O176" t="n">
         <v>0.968325793743134</v>
@@ -25252,16 +25252,16 @@
         <v>0</v>
       </c>
       <c r="K177" t="n">
-        <v>2.032513868138487</v>
+        <v>1.957166961799217</v>
       </c>
       <c r="L177" t="n">
-        <v>5.468633017504181</v>
+        <v>5.000000043514281</v>
       </c>
       <c r="M177" t="n">
-        <v>5.209919086801799</v>
+        <v>5.059225274123258</v>
       </c>
       <c r="N177" t="n">
-        <v>11.69379273886036</v>
+        <v>10.75652679088056</v>
       </c>
       <c r="O177" t="n">
         <v>0.971075594425201</v>
@@ -25392,16 +25392,16 @@
         <v>0</v>
       </c>
       <c r="K178" t="n">
-        <v>1.169563504387193</v>
+        <v>1.119564951094649</v>
       </c>
       <c r="L178" t="n">
-        <v>5.499858377860274</v>
+        <v>5.016214704227559</v>
       </c>
       <c r="M178" t="n">
-        <v>3.157051696075646</v>
+        <v>3.057054589490557</v>
       </c>
       <c r="N178" t="n">
-        <v>11.32650424987728</v>
+        <v>10.35921690261185</v>
       </c>
       <c r="O178" t="n">
         <v>0.968325793743134</v>
@@ -25532,13 +25532,13 @@
         <v>0</v>
       </c>
       <c r="K179" t="n">
-        <v>5.529068882790922</v>
+        <v>5.007159319890679</v>
       </c>
       <c r="L179" t="n">
         <v>0.4928749001154221</v>
       </c>
       <c r="M179" t="n">
-        <v>11.4126638846962</v>
+        <v>10.36884475889572</v>
       </c>
       <c r="N179" t="n">
         <v>1.645135991002989</v>
@@ -25827,13 +25827,13 @@
         <v>0</v>
       </c>
       <c r="K181" t="n">
-        <v>5.545245421679191</v>
+        <v>5.007192930626434</v>
       </c>
       <c r="L181" t="n">
         <v>0.4928749001154221</v>
       </c>
       <c r="M181" t="n">
-        <v>11.76566338157389</v>
+        <v>10.68955839946837</v>
       </c>
       <c r="N181" t="n">
         <v>1.804951315516884</v>
@@ -26523,16 +26523,16 @@
         <v>0</v>
       </c>
       <c r="K186" t="n">
-        <v>6.498880899609468</v>
+        <v>6.361721185801878</v>
       </c>
       <c r="L186" t="n">
-        <v>4.307799523672609</v>
+        <v>3.160247355444886</v>
       </c>
       <c r="M186" t="n">
-        <v>1.267138729241419</v>
+        <v>0.9928193016262399</v>
       </c>
       <c r="N186" t="n">
-        <v>9.123995808592385</v>
+        <v>6.82889147213694</v>
       </c>
       <c r="O186" t="n">
         <v>0.783512711524963</v>
@@ -26663,16 +26663,16 @@
         <v>0</v>
       </c>
       <c r="K187" t="n">
-        <v>4.383659672781272</v>
+        <v>3.277328720046984</v>
       </c>
       <c r="L187" t="n">
-        <v>6.985681554327615</v>
+        <v>5.000023564744388</v>
       </c>
       <c r="M187" t="n">
-        <v>10.22074746769123</v>
+        <v>8.008085562222657</v>
       </c>
       <c r="N187" t="n">
-        <v>15.78763534753755</v>
+        <v>11.81631936837109</v>
       </c>
       <c r="O187" t="n">
         <v>0.783512711524963</v>
@@ -26803,16 +26803,16 @@
         <v>0</v>
       </c>
       <c r="K188" t="n">
-        <v>0.3300959680996818</v>
+        <v>0.1929362542920924</v>
       </c>
       <c r="L188" t="n">
-        <v>4.307799523672609</v>
+        <v>3.160247355444886</v>
       </c>
       <c r="M188" t="n">
-        <v>1.267138729241419</v>
+        <v>0.9928193016262399</v>
       </c>
       <c r="N188" t="n">
-        <v>9.123995808592385</v>
+        <v>6.82889147213694</v>
       </c>
       <c r="O188" t="n">
         <v>0.783512711524963</v>
@@ -27221,16 +27221,16 @@
         <v>0</v>
       </c>
       <c r="K191" t="n">
-        <v>0.3341511712509522</v>
+        <v>0.1966413437373362</v>
       </c>
       <c r="L191" t="n">
-        <v>4.529872412953297</v>
+        <v>3.297058950119558</v>
       </c>
       <c r="M191" t="n">
-        <v>1.331878166489777</v>
+        <v>1.056858511462545</v>
       </c>
       <c r="N191" t="n">
-        <v>9.590150255989213</v>
+        <v>7.124523330321736</v>
       </c>
       <c r="O191" t="n">
         <v>0.793509900569916</v>
@@ -27361,16 +27361,16 @@
         <v>0</v>
       </c>
       <c r="K192" t="n">
-        <v>4.618172803125351</v>
+        <v>3.493835445340488</v>
       </c>
       <c r="L192" t="n">
-        <v>7.040955121328567</v>
+        <v>4.999975289707321</v>
       </c>
       <c r="M192" t="n">
-        <v>10.8899880516117</v>
+        <v>8.641313336041971</v>
       </c>
       <c r="N192" t="n">
-        <v>15.87693827556054</v>
+        <v>11.79497861231805</v>
       </c>
       <c r="O192" t="n">
         <v>0.793509900569916</v>
@@ -27641,16 +27641,16 @@
         <v>0</v>
       </c>
       <c r="K194" t="n">
-        <v>6.928539374457257</v>
+        <v>6.791029546943641</v>
       </c>
       <c r="L194" t="n">
-        <v>4.529872412953297</v>
+        <v>3.297058950119558</v>
       </c>
       <c r="M194" t="n">
-        <v>1.331878166489777</v>
+        <v>1.056858511462545</v>
       </c>
       <c r="N194" t="n">
-        <v>9.590150255989213</v>
+        <v>7.124523330321736</v>
       </c>
       <c r="O194" t="n">
         <v>0.793509900569916</v>
@@ -27781,16 +27781,16 @@
         <v>0</v>
       </c>
       <c r="K195" t="n">
-        <v>2.222399672777593</v>
+        <v>2.037988614051658</v>
       </c>
       <c r="L195" t="n">
-        <v>5.94789540609918</v>
+        <v>5.000000002569197</v>
       </c>
       <c r="M195" t="n">
-        <v>5.636969324633505</v>
+        <v>5.268147207181637</v>
       </c>
       <c r="N195" t="n">
-        <v>12.65231760020337</v>
+        <v>10.75652679314341</v>
       </c>
       <c r="O195" t="n">
         <v>0.934570848941803</v>
@@ -27921,16 +27921,16 @@
         <v>0</v>
       </c>
       <c r="K196" t="n">
-        <v>1.324388040467972</v>
+        <v>1.222005734085395</v>
       </c>
       <c r="L196" t="n">
-        <v>6.189572059245869</v>
+        <v>5.01621439666747</v>
       </c>
       <c r="M196" t="n">
-        <v>3.54154138198364</v>
+        <v>3.336776769218488</v>
       </c>
       <c r="N196" t="n">
-        <v>12.70593179199965</v>
+        <v>10.35921646684285</v>
       </c>
       <c r="O196" t="n">
         <v>0.942182064056396</v>
@@ -28061,16 +28061,16 @@
         <v>0</v>
       </c>
       <c r="K197" t="n">
-        <v>2.222399672777593</v>
+        <v>2.037988614051658</v>
       </c>
       <c r="L197" t="n">
-        <v>5.94789540609918</v>
+        <v>5.000000002569197</v>
       </c>
       <c r="M197" t="n">
-        <v>5.636969324633505</v>
+        <v>5.268147207181637</v>
       </c>
       <c r="N197" t="n">
-        <v>12.65231760020337</v>
+        <v>10.75652679314341</v>
       </c>
       <c r="O197" t="n">
         <v>0.934570848941803</v>
@@ -28201,16 +28201,16 @@
         <v>0</v>
       </c>
       <c r="K198" t="n">
-        <v>1.324388040467972</v>
+        <v>1.222005734085395</v>
       </c>
       <c r="L198" t="n">
-        <v>6.189572059245869</v>
+        <v>5.01621439666747</v>
       </c>
       <c r="M198" t="n">
-        <v>3.54154138198364</v>
+        <v>3.336776769218488</v>
       </c>
       <c r="N198" t="n">
-        <v>12.70593179199965</v>
+        <v>10.35921646684285</v>
       </c>
       <c r="O198" t="n">
         <v>0.942182064056396</v>
@@ -28341,13 +28341,13 @@
         <v>0</v>
       </c>
       <c r="K199" t="n">
-        <v>6.679528167456301</v>
+        <v>5.007159276460093</v>
       </c>
       <c r="L199" t="n">
         <v>0.5922438855252981</v>
       </c>
       <c r="M199" t="n">
-        <v>13.71358209087919</v>
+        <v>10.36884430888677</v>
       </c>
       <c r="N199" t="n">
         <v>1.976813449621707</v>
@@ -28481,13 +28481,13 @@
         <v>0</v>
       </c>
       <c r="K200" t="n">
-        <v>6.731288998327797</v>
+        <v>5.007192887194388</v>
       </c>
       <c r="L200" t="n">
         <v>0.5922438855252981</v>
       </c>
       <c r="M200" t="n">
-        <v>14.13775015780724</v>
+        <v>10.68955793554042</v>
       </c>
       <c r="N200" t="n">
         <v>2.168849296313089</v>
@@ -29332,16 +29332,16 @@
         <v>0</v>
       </c>
       <c r="K206" t="n">
-        <v>4.755774948705914</v>
+        <v>3.281930412100067</v>
       </c>
       <c r="L206" t="n">
-        <v>7.56205129008721</v>
+        <v>5.000023487221821</v>
       </c>
       <c r="M206" t="n">
-        <v>10.96701873935264</v>
+        <v>8.019329666140944</v>
       </c>
       <c r="N206" t="n">
-        <v>16.94037478705281</v>
+        <v>11.81631918132203</v>
       </c>
       <c r="O206" t="n">
         <v>0.73122239112854</v>
@@ -29472,16 +29472,16 @@
         <v>0</v>
       </c>
       <c r="K207" t="n">
-        <v>0.3759301554479476</v>
+        <v>0.1932071697643959</v>
       </c>
       <c r="L207" t="n">
-        <v>4.640895321789932</v>
+        <v>3.16024730704547</v>
       </c>
       <c r="M207" t="n">
-        <v>1.359659284497445</v>
+        <v>0.9942133131303414</v>
       </c>
       <c r="N207" t="n">
-        <v>9.790187393526406</v>
+        <v>6.828891364037482</v>
       </c>
       <c r="O207" t="n">
         <v>0.73122239112854</v>
@@ -29612,16 +29612,16 @@
         <v>0</v>
       </c>
       <c r="K208" t="n">
-        <v>6.553376640119285</v>
+        <v>6.370653654435733</v>
       </c>
       <c r="L208" t="n">
-        <v>4.640895321789932</v>
+        <v>3.16024730704547</v>
       </c>
       <c r="M208" t="n">
-        <v>1.359659284497445</v>
+        <v>0.9942133131303414</v>
       </c>
       <c r="N208" t="n">
-        <v>9.790187393526406</v>
+        <v>6.828891364037482</v>
       </c>
       <c r="O208" t="n">
         <v>0.73122239112854</v>
@@ -30030,16 +30030,16 @@
         <v>0</v>
       </c>
       <c r="K211" t="n">
-        <v>7.003088124766662</v>
+        <v>6.815921818569162</v>
       </c>
       <c r="L211" t="n">
-        <v>4.901368958757235</v>
+        <v>3.297058923353469</v>
       </c>
       <c r="M211" t="n">
-        <v>1.435064981767705</v>
+        <v>1.060732369372705</v>
       </c>
       <c r="N211" t="n">
-        <v>10.33314393803177</v>
+        <v>7.124523867224243</v>
       </c>
       <c r="O211" t="n">
         <v>0.739152848720551</v>
@@ -30310,16 +30310,16 @@
         <v>0</v>
       </c>
       <c r="K213" t="n">
-        <v>5.036991343503701</v>
+        <v>3.506642029702017</v>
       </c>
       <c r="L213" t="n">
-        <v>7.655985018552514</v>
+        <v>4.999975391272636</v>
       </c>
       <c r="M213" t="n">
-        <v>11.73368623192054</v>
+        <v>8.672987604317175</v>
       </c>
       <c r="N213" t="n">
-        <v>17.10699875574479</v>
+        <v>11.79497950118503</v>
       </c>
       <c r="O213" t="n">
         <v>0.739152848720551</v>
@@ -30450,16 +30450,16 @@
         <v>0</v>
       </c>
       <c r="K214" t="n">
-        <v>0.3845285470323707</v>
+        <v>0.1973622408348705</v>
       </c>
       <c r="L214" t="n">
-        <v>4.901368958757235</v>
+        <v>3.297058923353469</v>
       </c>
       <c r="M214" t="n">
-        <v>1.435064981767705</v>
+        <v>1.060732369372705</v>
       </c>
       <c r="N214" t="n">
-        <v>10.33314393803177</v>
+        <v>7.124523867224243</v>
       </c>
       <c r="O214" t="n">
         <v>0.739152848720551</v>
@@ -30590,16 +30590,16 @@
         <v>0</v>
       </c>
       <c r="K215" t="n">
-        <v>2.362548917934991</v>
+        <v>2.056347626581538</v>
       </c>
       <c r="L215" t="n">
-        <v>6.274516339767983</v>
+        <v>4.999999803277319</v>
       </c>
       <c r="M215" t="n">
-        <v>5.928007307319572</v>
+        <v>5.315604724612665</v>
       </c>
       <c r="N215" t="n">
-        <v>13.30555957804685</v>
+        <v>10.75652650506553</v>
       </c>
       <c r="O215" t="n">
         <v>0.896693348884583</v>
@@ -30730,16 +30730,16 @@
         <v>0</v>
       </c>
       <c r="K216" t="n">
-        <v>1.421426080407794</v>
+        <v>1.283723213906997</v>
       </c>
       <c r="L216" t="n">
-        <v>6.618596829844732</v>
+        <v>5.016214628317829</v>
       </c>
       <c r="M216" t="n">
-        <v>3.780706639440629</v>
+        <v>3.505300906439034</v>
       </c>
       <c r="N216" t="n">
-        <v>13.56398118928284</v>
+        <v>10.35921678622903</v>
       </c>
       <c r="O216" t="n">
         <v>0.927154958248138</v>
@@ -30870,16 +30870,16 @@
         <v>0</v>
       </c>
       <c r="K217" t="n">
-        <v>2.362548917934991</v>
+        <v>2.056347626581538</v>
       </c>
       <c r="L217" t="n">
-        <v>6.274516339767983</v>
+        <v>4.999999803277319</v>
       </c>
       <c r="M217" t="n">
-        <v>5.928007307319572</v>
+        <v>5.315604724612665</v>
       </c>
       <c r="N217" t="n">
-        <v>13.30555957804685</v>
+        <v>10.75652650506553</v>
       </c>
       <c r="O217" t="n">
         <v>0.896693348884583</v>
@@ -31010,16 +31010,16 @@
         <v>0</v>
       </c>
       <c r="K218" t="n">
-        <v>1.421426080407794</v>
+        <v>1.283723213906997</v>
       </c>
       <c r="L218" t="n">
-        <v>6.618596829844732</v>
+        <v>5.016214628317829</v>
       </c>
       <c r="M218" t="n">
-        <v>3.780706639440629</v>
+        <v>3.505300906439034</v>
       </c>
       <c r="N218" t="n">
-        <v>13.56398118928284</v>
+        <v>10.35921678622903</v>
       </c>
       <c r="O218" t="n">
         <v>0.927154958248138</v>
@@ -31150,13 +31150,13 @@
         <v>0</v>
       </c>
       <c r="K219" t="n">
-        <v>6.930330820460355</v>
+        <v>5.007158990023233</v>
       </c>
       <c r="L219" t="n">
         <v>0.6139065523914846</v>
       </c>
       <c r="M219" t="n">
-        <v>14.21518754031887</v>
+        <v>10.36884387944462</v>
       </c>
       <c r="N219" t="n">
         <v>2.049119896783707</v>
@@ -31445,13 +31445,13 @@
         <v>0</v>
       </c>
       <c r="K221" t="n">
-        <v>6.98984911377153</v>
+        <v>5.007192600756136</v>
       </c>
       <c r="L221" t="n">
         <v>0.6139065523914846</v>
       </c>
       <c r="M221" t="n">
-        <v>14.65487051884619</v>
+        <v>10.68955749281541</v>
       </c>
       <c r="N221" t="n">
         <v>2.248179891254262</v>
@@ -32141,16 +32141,16 @@
         <v>0</v>
       </c>
       <c r="K226" t="n">
-        <v>5.186510784105343</v>
+        <v>3.287256798104183</v>
       </c>
       <c r="L226" t="n">
-        <v>8.229218272418121</v>
+        <v>5.000023397486901</v>
       </c>
       <c r="M226" t="n">
-        <v>11.83085235417356</v>
+        <v>8.032344382171242</v>
       </c>
       <c r="N226" t="n">
-        <v>18.27470871466902</v>
+        <v>11.81631896480658</v>
       </c>
       <c r="O226" t="n">
         <v>0.678932011127472</v>
@@ -32281,16 +32281,16 @@
         <v>0</v>
       </c>
       <c r="K227" t="n">
-        <v>0.4289848302442225</v>
+        <v>0.1935208106178929</v>
       </c>
       <c r="L227" t="n">
-        <v>5.026464696219634</v>
+        <v>3.160247251021551</v>
       </c>
       <c r="M227" t="n">
-        <v>1.466754879259014</v>
+        <v>0.9958268400063551</v>
       </c>
       <c r="N227" t="n">
-        <v>10.56132612930496</v>
+        <v>6.828891238908795</v>
       </c>
       <c r="O227" t="n">
         <v>0.678932011127472</v>
@@ -32421,16 +32421,16 @@
         <v>0</v>
       </c>
       <c r="K228" t="n">
-        <v>6.616456805216798</v>
+        <v>6.380992785590468</v>
       </c>
       <c r="L228" t="n">
-        <v>5.026464696219634</v>
+        <v>3.160247251021551</v>
       </c>
       <c r="M228" t="n">
-        <v>1.466754879259014</v>
+        <v>0.9958268400063551</v>
       </c>
       <c r="N228" t="n">
-        <v>10.56132612930496</v>
+        <v>6.828891238908795</v>
       </c>
       <c r="O228" t="n">
         <v>0.678932011127472</v>
@@ -32839,16 +32839,16 @@
         <v>0</v>
       </c>
       <c r="K231" t="n">
-        <v>5.522717595676148</v>
+        <v>3.535917117169402</v>
       </c>
       <c r="L231" t="n">
-        <v>8.374245069018725</v>
+        <v>4.999975547965766</v>
       </c>
       <c r="M231" t="n">
-        <v>12.71899460504569</v>
+        <v>8.745393648032195</v>
       </c>
       <c r="N231" t="n">
-        <v>18.54351825864596</v>
+        <v>11.79497921654004</v>
       </c>
       <c r="O231" t="n">
         <v>0.687585294246674</v>
@@ -32979,16 +32979,16 @@
         <v>0</v>
       </c>
       <c r="K232" t="n">
-        <v>0.4420016072791499</v>
+        <v>0.1990099560529629</v>
       </c>
       <c r="L232" t="n">
-        <v>5.335219826277697</v>
+        <v>3.297059121142615</v>
       </c>
       <c r="M232" t="n">
-        <v>1.555571147909065</v>
+        <v>1.069587845456691</v>
       </c>
       <c r="N232" t="n">
-        <v>11.20084510556023</v>
+        <v>7.124523695290068</v>
       </c>
       <c r="O232" t="n">
         <v>0.687585294246674</v>
@@ -33119,16 +33119,16 @@
         <v>0</v>
       </c>
       <c r="K233" t="n">
-        <v>3.888181747984834</v>
+        <v>3.544834225609806</v>
       </c>
       <c r="L233" t="n">
-        <v>0.2683556649369164</v>
+        <v>0.2650734745230953</v>
       </c>
       <c r="M233" t="n">
-        <v>6.866950447500545</v>
+        <v>6.180255402750491</v>
       </c>
       <c r="N233" t="n">
-        <v>0.06564380827642124</v>
+        <v>0.05907942744877912</v>
       </c>
       <c r="O233" t="n">
         <v>0.9</v>
@@ -33259,16 +33259,16 @@
         <v>0</v>
       </c>
       <c r="K234" t="n">
-        <v>7.115815929512021</v>
+        <v>6.872824278285834</v>
       </c>
       <c r="L234" t="n">
-        <v>5.335219826277697</v>
+        <v>3.297059121142615</v>
       </c>
       <c r="M234" t="n">
-        <v>1.555571147909065</v>
+        <v>1.069587845456691</v>
       </c>
       <c r="N234" t="n">
-        <v>11.20084510556023</v>
+        <v>7.124523695290068</v>
       </c>
       <c r="O234" t="n">
         <v>0.687585294246674</v>
@@ -33399,16 +33399,16 @@
         <v>0</v>
       </c>
       <c r="K235" t="n">
-        <v>2.480361220106435</v>
+        <v>2.045697448027209</v>
       </c>
       <c r="L235" t="n">
-        <v>6.531957031636582</v>
+        <v>4.999999756696284</v>
       </c>
       <c r="M235" t="n">
-        <v>6.15740178297668</v>
+        <v>5.288074238818229</v>
       </c>
       <c r="N235" t="n">
-        <v>13.82044117391833</v>
+        <v>10.75652662403773</v>
       </c>
       <c r="O235" t="n">
         <v>0.8588158488273619</v>
@@ -33539,16 +33539,16 @@
         <v>0</v>
       </c>
       <c r="K236" t="n">
-        <v>1.513604291457079</v>
+        <v>1.339126933794874</v>
       </c>
       <c r="L236" t="n">
-        <v>7.021911538406195</v>
+        <v>5.016214850426178</v>
       </c>
       <c r="M236" t="n">
-        <v>4.005539576009375</v>
+        <v>3.656584860684966</v>
       </c>
       <c r="N236" t="n">
-        <v>14.37061074644967</v>
+        <v>10.35921737048964</v>
       </c>
       <c r="O236" t="n">
         <v>0.9128819704055789</v>
@@ -33679,16 +33679,16 @@
         <v>0</v>
       </c>
       <c r="K237" t="n">
-        <v>2.480361220106435</v>
+        <v>2.045697448027209</v>
       </c>
       <c r="L237" t="n">
-        <v>6.531957031636582</v>
+        <v>4.999999756696284</v>
       </c>
       <c r="M237" t="n">
-        <v>6.15740178297668</v>
+        <v>5.288074238818229</v>
       </c>
       <c r="N237" t="n">
-        <v>13.82044117391833</v>
+        <v>10.75652662403773</v>
       </c>
       <c r="O237" t="n">
         <v>0.8588158488273619</v>
@@ -33819,16 +33819,16 @@
         <v>0</v>
       </c>
       <c r="K238" t="n">
-        <v>1.513604291457079</v>
+        <v>1.339126933794874</v>
       </c>
       <c r="L238" t="n">
-        <v>7.021911538406195</v>
+        <v>5.016214850426178</v>
       </c>
       <c r="M238" t="n">
-        <v>4.005539576009375</v>
+        <v>3.656584860684966</v>
       </c>
       <c r="N238" t="n">
-        <v>14.37061074644967</v>
+        <v>10.35921737048964</v>
       </c>
       <c r="O238" t="n">
         <v>0.9128819704055789</v>
@@ -33959,13 +33959,13 @@
         <v>0</v>
       </c>
       <c r="K239" t="n">
-        <v>7.200106928394029</v>
+        <v>5.007159313122688</v>
       </c>
       <c r="L239" t="n">
         <v>0.6372080120908342</v>
       </c>
       <c r="M239" t="n">
-        <v>14.75473972183429</v>
+        <v>10.3688444912916</v>
       </c>
       <c r="N239" t="n">
         <v>2.126896367010388</v>
@@ -34099,13 +34099,13 @@
         <v>0</v>
       </c>
       <c r="K240" t="n">
-        <v>7.267969523903273</v>
+        <v>5.007192923857576</v>
       </c>
       <c r="L240" t="n">
         <v>0.6372080120908342</v>
       </c>
       <c r="M240" t="n">
-        <v>15.21111132367852</v>
+        <v>10.68955812358713</v>
       </c>
       <c r="N240" t="n">
         <v>2.333511889958103</v>
@@ -34394,16 +34394,16 @@
         <v>0</v>
       </c>
       <c r="K242" t="n">
-        <v>3.936588925989287</v>
+        <v>4.696809410816528</v>
       </c>
       <c r="L242" t="n">
-        <v>3.560689992092175</v>
+        <v>4.162952059170601</v>
       </c>
       <c r="M242" t="n">
-        <v>11.06069260503978</v>
+        <v>12.58113357469427</v>
       </c>
       <c r="N242" t="n">
-        <v>11.23072222738806</v>
+        <v>12.4352463615449</v>
       </c>
       <c r="O242" t="n">
         <v>1.13746345043182</v>
@@ -34674,16 +34674,16 @@
         <v>0</v>
       </c>
       <c r="K244" t="n">
-        <v>4.141462189424948</v>
+        <v>4.900712890062604</v>
       </c>
       <c r="L244" t="n">
-        <v>3.55996386607118</v>
+        <v>4.162866552020556</v>
       </c>
       <c r="M244" t="n">
-        <v>11.06069260503978</v>
+        <v>12.5791940063151</v>
       </c>
       <c r="N244" t="n">
-        <v>11.23072222738806</v>
+        <v>12.4365275992868</v>
       </c>
       <c r="O244" t="n">
         <v>1.13728809356689</v>
@@ -34814,13 +34814,13 @@
         <v>0</v>
       </c>
       <c r="K245" t="n">
-        <v>3.875827208694761</v>
+        <v>4.999981685503402</v>
       </c>
       <c r="L245" t="n">
         <v>0.505805923725076</v>
       </c>
       <c r="M245" t="n">
-        <v>9.012122513404982</v>
+        <v>11.26043146702226</v>
       </c>
       <c r="N245" t="n">
         <v>1.710585873122722</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="K248" t="n">
-        <v>3.137130211715077</v>
+        <v>3.879206785165393</v>
       </c>
       <c r="L248" t="n">
-        <v>4.068592195792614</v>
+        <v>4.75157964234451</v>
       </c>
       <c r="M248" t="n">
-        <v>10.13341040814153</v>
+        <v>11.61756355504217</v>
       </c>
       <c r="N248" t="n">
-        <v>12.86125013310617</v>
+        <v>14.22722502620996</v>
       </c>
       <c r="O248" t="n">
         <v>1.14646136760712</v>
@@ -35529,16 +35529,16 @@
         <v>0</v>
       </c>
       <c r="K250" t="n">
-        <v>4.031919013001787</v>
+        <v>4.774841788109265</v>
       </c>
       <c r="L250" t="n">
-        <v>4.068591702790894</v>
+        <v>4.751579149342791</v>
       </c>
       <c r="M250" t="n">
-        <v>10.13341040814153</v>
+        <v>11.61925595835649</v>
       </c>
       <c r="N250" t="n">
-        <v>12.86125013310617</v>
+        <v>14.22722502620996</v>
       </c>
       <c r="O250" t="n">
         <v>1.14662837982178</v>
@@ -35672,13 +35672,13 @@
         <v>1.318685077707209</v>
       </c>
       <c r="L251" t="n">
-        <v>4.645922906096557</v>
+        <v>5.00727381179998</v>
       </c>
       <c r="M251" t="n">
         <v>4.211126440975588</v>
       </c>
       <c r="N251" t="n">
-        <v>11.43567348148824</v>
+        <v>12.15837529289509</v>
       </c>
       <c r="O251" t="n">
         <v>1</v>
@@ -35812,13 +35812,13 @@
         <v>1.318685077707209</v>
       </c>
       <c r="L252" t="n">
-        <v>4.645801676334534</v>
+        <v>5.007152582037956</v>
       </c>
       <c r="M252" t="n">
         <v>4.211126440975588</v>
       </c>
       <c r="N252" t="n">
-        <v>11.43567348148824</v>
+        <v>12.15837529289509</v>
       </c>
       <c r="O252" t="n">
         <v>1</v>
@@ -35949,16 +35949,16 @@
         <v>0</v>
       </c>
       <c r="K253" t="n">
-        <v>5.24373258934021</v>
+        <v>4.327855003200717</v>
       </c>
       <c r="L253" t="n">
-        <v>4.760806415145732</v>
+        <v>4.162952062398791</v>
       </c>
       <c r="M253" t="n">
-        <v>13.42458686013704</v>
+        <v>11.59283168785806</v>
       </c>
       <c r="N253" t="n">
-        <v>13.63095525997582</v>
+        <v>12.43524655448193</v>
       </c>
       <c r="O253" t="n">
         <v>0.863552212715149</v>
@@ -36229,16 +36229,16 @@
         <v>0</v>
       </c>
       <c r="K255" t="n">
-        <v>5.432334925630963</v>
+        <v>4.51636612037013</v>
       </c>
       <c r="L255" t="n">
-        <v>4.76008073604549</v>
+        <v>4.162866608276571</v>
       </c>
       <c r="M255" t="n">
-        <v>13.42458686013704</v>
+        <v>11.59264924961537</v>
       </c>
       <c r="N255" t="n">
-        <v>13.63095525997582</v>
+        <v>12.43652700443798</v>
       </c>
       <c r="O255" t="n">
         <v>0.86353862285614</v>
@@ -36369,13 +36369,13 @@
         <v>0</v>
       </c>
       <c r="K256" t="n">
-        <v>6.474576383872486</v>
+        <v>4.999981937220278</v>
       </c>
       <c r="L256" t="n">
         <v>0.7975158405197063</v>
       </c>
       <c r="M256" t="n">
-        <v>14.20962097124688</v>
+        <v>11.26043207794247</v>
       </c>
       <c r="N256" t="n">
         <v>2.697120113457008</v>
@@ -36664,16 +36664,16 @@
         <v>0</v>
       </c>
       <c r="K258" t="n">
-        <v>4.354297764697427</v>
+        <v>3.493206529719284</v>
       </c>
       <c r="L258" t="n">
-        <v>5.369724721779888</v>
+        <v>4.751579623044702</v>
       </c>
       <c r="M258" t="n">
-        <v>12.18374196380397</v>
+        <v>10.46155949384768</v>
       </c>
       <c r="N258" t="n">
-        <v>15.46351589863648</v>
+        <v>14.2272257011661</v>
       </c>
       <c r="O258" t="n">
         <v>0.858649134635925</v>
@@ -36944,16 +36944,16 @@
         <v>0</v>
       </c>
       <c r="K260" t="n">
-        <v>3.91365474854841</v>
+        <v>3.448033206513275</v>
       </c>
       <c r="L260" t="n">
-        <v>0.60147097615084</v>
+        <v>0.5944270159865952</v>
       </c>
       <c r="M260" t="n">
-        <v>6.208287227135136</v>
+        <v>5.277044143064865</v>
       </c>
       <c r="N260" t="n">
-        <v>0.09391946885659676</v>
+        <v>0.07983154852810725</v>
       </c>
       <c r="O260" t="n">
         <v>0.85</v>
@@ -37084,16 +37084,16 @@
         <v>0</v>
       </c>
       <c r="K261" t="n">
-        <v>5.160182372971523</v>
+        <v>4.299116918363597</v>
       </c>
       <c r="L261" t="n">
-        <v>5.369724228778152</v>
+        <v>4.751579130042964</v>
       </c>
       <c r="M261" t="n">
-        <v>12.18374196380397</v>
+        <v>10.46161105458812</v>
       </c>
       <c r="N261" t="n">
-        <v>15.46351589863648</v>
+        <v>14.2272257011661</v>
       </c>
       <c r="O261" t="n">
         <v>0.858653366565704</v>
@@ -37227,13 +37227,13 @@
         <v>1.497203666304179</v>
       </c>
       <c r="L262" t="n">
-        <v>5.419982308236026</v>
+        <v>5.007273771481804</v>
       </c>
       <c r="M262" t="n">
         <v>4.781212780280669</v>
       </c>
       <c r="N262" t="n">
-        <v>12.9837916213557</v>
+        <v>12.15837454784726</v>
       </c>
       <c r="O262" t="n">
         <v>1</v>
@@ -37367,13 +37367,13 @@
         <v>1.497203666304179</v>
       </c>
       <c r="L263" t="n">
-        <v>5.419861078481433</v>
+        <v>5.007152541727208</v>
       </c>
       <c r="M263" t="n">
         <v>4.781212780280669</v>
       </c>
       <c r="N263" t="n">
-        <v>12.9837916213557</v>
+        <v>12.15837454784726</v>
       </c>
       <c r="O263" t="n">
         <v>1</v>
@@ -37504,16 +37504,16 @@
         <v>0</v>
       </c>
       <c r="K264" t="n">
-        <v>3.761136081653647</v>
+        <v>4.744771083664733</v>
       </c>
       <c r="L264" t="n">
-        <v>3.399064967507057</v>
+        <v>4.16295203305641</v>
       </c>
       <c r="M264" t="n">
-        <v>10.74233667045103</v>
+        <v>12.7096066744732</v>
       </c>
       <c r="N264" t="n">
-        <v>10.90747239137166</v>
+        <v>12.43524652247036</v>
       </c>
       <c r="O264" t="n">
         <v>1.18313241004944</v>
@@ -37644,16 +37644,16 @@
         <v>0</v>
       </c>
       <c r="K265" t="n">
-        <v>3.968066075940686</v>
+        <v>4.950882142998446</v>
       </c>
       <c r="L265" t="n">
-        <v>3.39833910800258</v>
+        <v>4.162866557528974</v>
       </c>
       <c r="M265" t="n">
-        <v>10.74233667045103</v>
+        <v>12.70796880456654</v>
       </c>
       <c r="N265" t="n">
-        <v>10.90747239137166</v>
+        <v>12.43652729042445</v>
       </c>
       <c r="O265" t="n">
         <v>1.1829799413681</v>
@@ -37924,13 +37924,13 @@
         <v>0</v>
       </c>
       <c r="K267" t="n">
-        <v>3.572608648323023</v>
+        <v>4.999981555268829</v>
       </c>
       <c r="L267" t="n">
         <v>0.4717695994457569</v>
       </c>
       <c r="M267" t="n">
-        <v>8.405685320949466</v>
+        <v>11.26043113484108</v>
       </c>
       <c r="N267" t="n">
         <v>1.595478372885392</v>
@@ -38359,16 +38359,16 @@
         <v>0</v>
       </c>
       <c r="K270" t="n">
-        <v>2.951989558775919</v>
+        <v>3.914018413076587</v>
       </c>
       <c r="L270" t="n">
-        <v>3.855590147374546</v>
+        <v>4.751579768117479</v>
       </c>
       <c r="M270" t="n">
-        <v>9.797761402579829</v>
+        <v>11.72181911118117</v>
       </c>
       <c r="N270" t="n">
-        <v>12.43524687817147</v>
+        <v>14.22722611965733</v>
       </c>
       <c r="O270" t="n">
         <v>1.19637727737427</v>
@@ -38639,16 +38639,16 @@
         <v>0</v>
       </c>
       <c r="K272" t="n">
-        <v>3.854992064300813</v>
+        <v>4.816843968998788</v>
       </c>
       <c r="L272" t="n">
-        <v>3.855589654372789</v>
+        <v>4.75157927511572</v>
       </c>
       <c r="M272" t="n">
-        <v>9.797761402579829</v>
+        <v>11.72146521197578</v>
       </c>
       <c r="N272" t="n">
-        <v>12.43524687817147</v>
+        <v>14.22722611965733</v>
       </c>
       <c r="O272" t="n">
         <v>1.19634115695953</v>
@@ -38782,13 +38782,13 @@
         <v>1.292770990062486</v>
       </c>
       <c r="L273" t="n">
-        <v>4.533559575571481</v>
+        <v>5.00727390572337</v>
       </c>
       <c r="M273" t="n">
         <v>4.128371656289473</v>
       </c>
       <c r="N273" t="n">
-        <v>11.21094579639835</v>
+        <v>12.15837445670213</v>
       </c>
       <c r="O273" t="n">
         <v>1</v>
@@ -38922,13 +38922,13 @@
         <v>1.292770990062486</v>
       </c>
       <c r="L274" t="n">
-        <v>4.533438345817793</v>
+        <v>5.007152675969682</v>
       </c>
       <c r="M274" t="n">
         <v>4.128371656289473</v>
       </c>
       <c r="N274" t="n">
-        <v>11.21094579639835</v>
+        <v>12.15837445670213</v>
       </c>
       <c r="O274" t="n">
         <v>1</v>
@@ -39059,16 +39059,16 @@
         <v>0</v>
       </c>
       <c r="K275" t="n">
-        <v>3.592408716963214</v>
+        <v>4.788557541695606</v>
       </c>
       <c r="L275" t="n">
-        <v>3.242829786085065</v>
+        <v>4.162951932046145</v>
       </c>
       <c r="M275" t="n">
-        <v>10.43459735832978</v>
+        <v>12.82689500779457</v>
       </c>
       <c r="N275" t="n">
-        <v>10.59500238101205</v>
+        <v>12.43524667293421</v>
       </c>
       <c r="O275" t="n">
         <v>1.22926592826843</v>
@@ -39199,16 +39199,16 @@
         <v>0</v>
       </c>
       <c r="K276" t="n">
-        <v>3.801142376597358</v>
+        <v>4.996943531017619</v>
       </c>
       <c r="L276" t="n">
-        <v>3.242103962281298</v>
+        <v>4.162866460754668</v>
       </c>
       <c r="M276" t="n">
-        <v>10.43459735832978</v>
+        <v>12.8261996671703</v>
       </c>
       <c r="N276" t="n">
-        <v>10.59500238101205</v>
+        <v>12.4365273779588</v>
       </c>
       <c r="O276" t="n">
         <v>1.22919929027557</v>
@@ -39479,16 +39479,16 @@
         <v>0</v>
       </c>
       <c r="K278" t="n">
-        <v>3.306088126422359</v>
+        <v>4.999981800472101</v>
       </c>
       <c r="L278" t="n">
-        <v>0.4416512168478399</v>
+        <v>0.4421441155430592</v>
       </c>
       <c r="M278" t="n">
-        <v>7.87264404408261</v>
+        <v>11.2604313921821</v>
       </c>
       <c r="N278" t="n">
-        <v>1.494302109841533</v>
+        <v>1.495287907231972</v>
       </c>
       <c r="O278" t="n">
         <v>1.43032395839691</v>
@@ -39619,16 +39619,16 @@
         <v>0</v>
       </c>
       <c r="K279" t="n">
-        <v>2.776425815491093</v>
+        <v>3.945243615147402</v>
       </c>
       <c r="L279" t="n">
-        <v>3.652479069500171</v>
+        <v>4.751579496835317</v>
       </c>
       <c r="M279" t="n">
-        <v>9.477697944084797</v>
+        <v>11.81533354339741</v>
       </c>
       <c r="N279" t="n">
-        <v>12.02902468521022</v>
+        <v>14.22722553988051</v>
       </c>
       <c r="O279" t="n">
         <v>1.2466459274292</v>
@@ -40054,16 +40054,16 @@
         <v>0</v>
       </c>
       <c r="K282" t="n">
-        <v>3.686632442481233</v>
+        <v>4.855271729054651</v>
       </c>
       <c r="L282" t="n">
-        <v>3.652478576498436</v>
+        <v>4.751579003833581</v>
       </c>
       <c r="M282" t="n">
-        <v>9.477697944084797</v>
+        <v>11.81497651723163</v>
       </c>
       <c r="N282" t="n">
-        <v>12.02902468521022</v>
+        <v>14.22722553988051</v>
       </c>
       <c r="O282" t="n">
         <v>1.2466082572937</v>
@@ -40334,16 +40334,16 @@
         <v>0</v>
       </c>
       <c r="K284" t="n">
-        <v>1.26667861251768</v>
+        <v>1.267115789741607</v>
       </c>
       <c r="L284" t="n">
-        <v>4.421130374502819</v>
+        <v>5.007273889858093</v>
       </c>
       <c r="M284" t="n">
-        <v>4.045569065615073</v>
+        <v>4.046443420062928</v>
       </c>
       <c r="N284" t="n">
-        <v>10.98608829006463</v>
+        <v>12.15837532077518</v>
       </c>
       <c r="O284" t="n">
         <v>1.00021612644196</v>
@@ -40474,16 +40474,16 @@
         <v>0</v>
       </c>
       <c r="K285" t="n">
-        <v>1.266384442074296</v>
+        <v>1.267608682982093</v>
       </c>
       <c r="L285" t="n">
-        <v>4.421009144740517</v>
+        <v>5.007152660095791</v>
       </c>
       <c r="M285" t="n">
-        <v>4.045569065615073</v>
+        <v>4.048017547430668</v>
       </c>
       <c r="N285" t="n">
-        <v>10.98608829006463</v>
+        <v>12.15837532077518</v>
       </c>
       <c r="O285" t="n">
         <v>1.00060522556305</v>
@@ -40614,16 +40614,16 @@
         <v>0</v>
       </c>
       <c r="K286" t="n">
-        <v>3.482295427396304</v>
+        <v>4.829932890631102</v>
       </c>
       <c r="L286" t="n">
-        <v>3.145279317468086</v>
+        <v>4.162952097224821</v>
       </c>
       <c r="M286" t="n">
-        <v>10.24245033519897</v>
+        <v>12.93772526166856</v>
       </c>
       <c r="N286" t="n">
-        <v>10.3999015929639</v>
+        <v>12.43524715247737</v>
       </c>
       <c r="O286" t="n">
         <v>1.26314747333527</v>
@@ -40894,16 +40894,16 @@
         <v>0</v>
       </c>
       <c r="K288" t="n">
-        <v>3.692804126067291</v>
+        <v>5.040219368170628</v>
       </c>
       <c r="L288" t="n">
-        <v>3.14455350949417</v>
+        <v>4.162866627811599</v>
       </c>
       <c r="M288" t="n">
-        <v>10.24245033519897</v>
+        <v>12.93728081940564</v>
       </c>
       <c r="N288" t="n">
-        <v>10.3999015929639</v>
+        <v>12.43652782959876</v>
       </c>
       <c r="O288" t="n">
         <v>1.26310408115387</v>
@@ -41034,16 +41034,16 @@
         <v>0</v>
       </c>
       <c r="K289" t="n">
-        <v>3.072607328969803</v>
+        <v>4.999981527564964</v>
       </c>
       <c r="L289" t="n">
-        <v>0.4154797103281617</v>
+        <v>0.4158827969263824</v>
       </c>
       <c r="M289" t="n">
-        <v>7.405682758357593</v>
+        <v>11.26043115554792</v>
       </c>
       <c r="N289" t="n">
-        <v>1.405668452512941</v>
+        <v>1.406474625709382</v>
       </c>
       <c r="O289" t="n">
         <v>1.52051222324371</v>
@@ -41174,16 +41174,16 @@
         <v>0</v>
       </c>
       <c r="K290" t="n">
-        <v>2.614253661178223</v>
+        <v>3.975307455299602</v>
       </c>
       <c r="L290" t="n">
-        <v>3.465630909932147</v>
+        <v>4.751579738227807</v>
       </c>
       <c r="M290" t="n">
-        <v>9.183261302618609</v>
+        <v>11.90536889086137</v>
       </c>
       <c r="N290" t="n">
-        <v>11.65532786037759</v>
+        <v>14.22722551696891</v>
       </c>
       <c r="O290" t="n">
         <v>1.29642057418823</v>
@@ -41749,16 +41749,16 @@
         <v>0</v>
       </c>
       <c r="K294" t="n">
-        <v>3.531395944121081</v>
+        <v>4.892270202513346</v>
       </c>
       <c r="L294" t="n">
-        <v>3.46563041693041</v>
+        <v>4.75157924522607</v>
       </c>
       <c r="M294" t="n">
-        <v>9.183261302618609</v>
+        <v>11.90500981940314</v>
       </c>
       <c r="N294" t="n">
-        <v>11.65532786037759</v>
+        <v>14.22722551696891</v>
       </c>
       <c r="O294" t="n">
         <v>1.29638147354126</v>
@@ -41889,16 +41889,16 @@
         <v>0</v>
       </c>
       <c r="K295" t="n">
-        <v>1.242866868052526</v>
+        <v>1.243295826970532</v>
       </c>
       <c r="L295" t="n">
-        <v>4.317869192490552</v>
+        <v>5.007273834577042</v>
       </c>
       <c r="M295" t="n">
-        <v>3.969518159051581</v>
+        <v>3.970376076887592</v>
       </c>
       <c r="N295" t="n">
-        <v>10.77956555852922</v>
+        <v>12.1583748427022</v>
       </c>
       <c r="O295" t="n">
         <v>1.00021612644196</v>
@@ -42029,16 +42029,16 @@
         <v>0</v>
       </c>
       <c r="K296" t="n">
-        <v>1.242850804877267</v>
+        <v>1.243537230733388</v>
       </c>
       <c r="L296" t="n">
-        <v>4.318095471749603</v>
+        <v>5.007152618073775</v>
       </c>
       <c r="M296" t="n">
-        <v>3.969774166156095</v>
+        <v>3.971147017868337</v>
       </c>
       <c r="N296" t="n">
-        <v>10.78026076768458</v>
+        <v>12.15837506033293</v>
       </c>
       <c r="O296" t="n">
         <v>1.00034582614899</v>
@@ -42169,16 +42169,16 @@
         <v>0</v>
       </c>
       <c r="K297" t="n">
-        <v>4.320645482732701</v>
+        <v>4.587576221611122</v>
       </c>
       <c r="L297" t="n">
-        <v>3.91301532299309</v>
+        <v>4.162952047604578</v>
       </c>
       <c r="M297" t="n">
-        <v>11.75467449690484</v>
+        <v>12.28853597466168</v>
       </c>
       <c r="N297" t="n">
-        <v>11.93537230100301</v>
+        <v>12.43524575022599</v>
       </c>
       <c r="O297" t="n">
         <v>1.0454169511795</v>
@@ -42309,16 +42309,16 @@
         <v>0</v>
       </c>
       <c r="K298" t="n">
-        <v>4.520566828698383</v>
+        <v>4.787400179562348</v>
       </c>
       <c r="L298" t="n">
-        <v>3.912288793276686</v>
+        <v>4.162866492555406</v>
       </c>
       <c r="M298" t="n">
-        <v>11.75467449690484</v>
+        <v>12.28834119863277</v>
       </c>
       <c r="N298" t="n">
-        <v>11.93537230100301</v>
+        <v>12.43652769956045</v>
       </c>
       <c r="O298" t="n">
         <v>1.04540038108826</v>
@@ -42589,13 +42589,13 @@
         <v>0</v>
       </c>
       <c r="K300" t="n">
-        <v>4.635671123427758</v>
+        <v>4.999981581385832</v>
       </c>
       <c r="L300" t="n">
         <v>0.5910985124628285</v>
       </c>
       <c r="M300" t="n">
-        <v>10.53181064502894</v>
+        <v>11.26043156094509</v>
       </c>
       <c r="N300" t="n">
         <v>1.999037017194668</v>
@@ -42884,16 +42884,16 @@
         <v>0</v>
       </c>
       <c r="K302" t="n">
-        <v>3.547619722057289</v>
+        <v>3.803287551163957</v>
       </c>
       <c r="L302" t="n">
-        <v>4.541653943733965</v>
+        <v>4.751579776125304</v>
       </c>
       <c r="M302" t="n">
-        <v>10.87886334871188</v>
+        <v>11.39019900692521</v>
       </c>
       <c r="N302" t="n">
-        <v>13.8073735352958</v>
+        <v>14.22722520007848</v>
       </c>
       <c r="O302" t="n">
         <v>1.04700267314911</v>
@@ -43164,16 +43164,16 @@
         <v>0</v>
       </c>
       <c r="K304" t="n">
-        <v>4.425046048179087</v>
+        <v>4.68070674454709</v>
       </c>
       <c r="L304" t="n">
-        <v>4.541653450732241</v>
+        <v>4.75157928312358</v>
       </c>
       <c r="M304" t="n">
-        <v>10.87886334871188</v>
+        <v>11.39018474144788</v>
       </c>
       <c r="N304" t="n">
-        <v>13.8073735352958</v>
+        <v>14.22722520007848</v>
       </c>
       <c r="O304" t="n">
         <v>1.04700136184692</v>
@@ -43447,13 +43447,13 @@
         <v>1.373287101907046</v>
       </c>
       <c r="L306" t="n">
-        <v>4.882678708248699</v>
+        <v>5.007273842330926</v>
       </c>
       <c r="M306" t="n">
         <v>4.385494098368442</v>
       </c>
       <c r="N306" t="n">
-        <v>11.90918374617047</v>
+        <v>12.15837401433492</v>
       </c>
       <c r="O306" t="n">
         <v>1</v>
@@ -43584,16 +43584,16 @@
         <v>0</v>
       </c>
       <c r="K307" t="n">
-        <v>1.373393397850621</v>
+        <v>1.373108999200749</v>
       </c>
       <c r="L307" t="n">
-        <v>4.882557478499423</v>
+        <v>5.007152612581649</v>
       </c>
       <c r="M307" t="n">
-        <v>4.385494098368442</v>
+        <v>4.384925301068697</v>
       </c>
       <c r="N307" t="n">
-        <v>11.90918374617047</v>
+        <v>12.15837401433492</v>
       </c>
       <c r="O307" t="n">
         <v>0.999870300292969</v>
@@ -45301,16 +45301,16 @@
         <v>0</v>
       </c>
       <c r="K319" t="n">
-        <v>4.753238583250654</v>
+        <v>4.468738869354728</v>
       </c>
       <c r="L319" t="n">
-        <v>4.311313112816045</v>
+        <v>4.162951960218793</v>
       </c>
       <c r="M319" t="n">
-        <v>12.53921044507526</v>
+        <v>11.97021101728341</v>
       </c>
       <c r="N319" t="n">
-        <v>12.73196846599252</v>
+        <v>12.43524616079801</v>
       </c>
       <c r="O319" t="n">
         <v>0.954622387886047</v>
@@ -45441,16 +45441,16 @@
         <v>0</v>
       </c>
       <c r="K320" t="n">
-        <v>4.948198638855522</v>
+        <v>4.662617444127852</v>
       </c>
       <c r="L320" t="n">
-        <v>4.310587123390998</v>
+        <v>4.162866469276052</v>
       </c>
       <c r="M320" t="n">
-        <v>12.53921044507526</v>
+        <v>11.96804805561992</v>
       </c>
       <c r="N320" t="n">
-        <v>12.73196846599252</v>
+        <v>12.43652715776262</v>
       </c>
       <c r="O320" t="n">
         <v>0.954449892044067</v>
@@ -45721,13 +45721,13 @@
         <v>0</v>
       </c>
       <c r="K322" t="n">
-        <v>5.418447249624558</v>
+        <v>4.99998173285567</v>
       </c>
       <c r="L322" t="n">
         <v>0.6789652231150024</v>
       </c>
       <c r="M322" t="n">
-        <v>12.09736281455574</v>
+        <v>11.26043178101796</v>
       </c>
       <c r="N322" t="n">
         <v>2.296193588340454</v>
@@ -45861,16 +45861,16 @@
         <v>0</v>
       </c>
       <c r="K323" t="n">
-        <v>3.935469885357401</v>
+        <v>3.663051161676211</v>
       </c>
       <c r="L323" t="n">
-        <v>4.945376590795236</v>
+        <v>4.751579627912588</v>
       </c>
       <c r="M323" t="n">
-        <v>11.51505198834908</v>
+        <v>10.9702145409867</v>
       </c>
       <c r="N323" t="n">
-        <v>14.61481948850033</v>
+        <v>14.22722556273504</v>
       </c>
       <c r="O323" t="n">
         <v>0.952684760093689</v>
@@ -46436,16 +46436,16 @@
         <v>0</v>
       </c>
       <c r="K327" t="n">
-        <v>4.780551042774686</v>
+        <v>4.508772157468136</v>
       </c>
       <c r="L327" t="n">
-        <v>4.9455656845172</v>
+        <v>4.751579016127804</v>
       </c>
       <c r="M327" t="n">
-        <v>11.51535057391785</v>
+        <v>10.97179280330475</v>
       </c>
       <c r="N327" t="n">
-        <v>14.61519845111326</v>
+        <v>14.22722511433447</v>
       </c>
       <c r="O327" t="n">
         <v>0.952797114849091</v>
@@ -46579,13 +46579,13 @@
         <v>1.432588445149143</v>
       </c>
       <c r="L328" t="n">
-        <v>5.139809975846664</v>
+        <v>5.007273937139027</v>
       </c>
       <c r="M328" t="n">
         <v>4.574868694876622</v>
       </c>
       <c r="N328" t="n">
-        <v>12.4234466356159</v>
+        <v>12.15837455820062</v>
       </c>
       <c r="O328" t="n">
         <v>1</v>
@@ -46719,13 +46719,13 @@
         <v>1.432588445149143</v>
       </c>
       <c r="L329" t="n">
-        <v>5.139688746091965</v>
+        <v>5.007152707384328</v>
       </c>
       <c r="M329" t="n">
         <v>4.574868694876622</v>
       </c>
       <c r="N329" t="n">
-        <v>12.4234466356159</v>
+        <v>12.15837455820062</v>
       </c>
       <c r="O329" t="n">
         <v>1</v>
@@ -46856,16 +46856,16 @@
         <v>0</v>
       </c>
       <c r="K330" t="n">
-        <v>4.123503531344866</v>
+        <v>4.64337693826073</v>
       </c>
       <c r="L330" t="n">
-        <v>3.732067857989029</v>
+        <v>4.162952101028398</v>
       </c>
       <c r="M330" t="n">
-        <v>11.39826013155103</v>
+        <v>12.43800694538275</v>
       </c>
       <c r="N330" t="n">
-        <v>11.57347898400443</v>
+        <v>12.43524747008317</v>
       </c>
       <c r="O330" t="n">
         <v>1.09121978282928</v>
@@ -46996,16 +46996,16 @@
         <v>0</v>
       </c>
       <c r="K331" t="n">
-        <v>4.326054226400019</v>
+        <v>4.844932328070212</v>
       </c>
       <c r="L331" t="n">
-        <v>3.731342246805029</v>
+        <v>4.162866654964573</v>
       </c>
       <c r="M331" t="n">
-        <v>11.39826013155103</v>
+        <v>12.43601633489142</v>
       </c>
       <c r="N331" t="n">
-        <v>11.57347898400443</v>
+        <v>12.43652780032352</v>
       </c>
       <c r="O331" t="n">
         <v>1.09104514122009</v>
@@ -47276,13 +47276,13 @@
         <v>0</v>
       </c>
       <c r="K333" t="n">
-        <v>4.226214737823224</v>
+        <v>4.999981820721421</v>
       </c>
       <c r="L333" t="n">
         <v>0.5451369995809645</v>
       </c>
       <c r="M333" t="n">
-        <v>9.712898161872776</v>
+        <v>11.26043232766917</v>
       </c>
       <c r="N333" t="n">
         <v>1.84359970229719</v>
@@ -47416,16 +47416,16 @@
         <v>0</v>
       </c>
       <c r="K334" t="n">
-        <v>3.334781151540533</v>
+        <v>3.843262314846831</v>
       </c>
       <c r="L334" t="n">
-        <v>4.296757792851979</v>
+        <v>4.751579453088235</v>
       </c>
       <c r="M334" t="n">
-        <v>10.49295497326119</v>
+        <v>11.50991729987379</v>
       </c>
       <c r="N334" t="n">
-        <v>13.31758145689105</v>
+        <v>14.22722477736356</v>
       </c>
       <c r="O334" t="n">
         <v>1.09691858291626</v>
@@ -47851,16 +47851,16 @@
         <v>0</v>
       </c>
       <c r="K337" t="n">
-        <v>4.221619882761541</v>
+        <v>4.729028435583525</v>
       </c>
       <c r="L337" t="n">
-        <v>4.29675729985027</v>
+        <v>4.751578960086526</v>
       </c>
       <c r="M337" t="n">
-        <v>10.49295497326119</v>
+        <v>11.50777207890516</v>
       </c>
       <c r="N337" t="n">
-        <v>13.31758145689105</v>
+        <v>14.22722477736356</v>
       </c>
       <c r="O337" t="n">
         <v>1.09671413898468</v>
@@ -48134,13 +48134,13 @@
         <v>1.34515847630125</v>
       </c>
       <c r="L339" t="n">
-        <v>4.760712297275757</v>
+        <v>5.007273755616026</v>
       </c>
       <c r="M339" t="n">
         <v>4.295667345158477</v>
       </c>
       <c r="N339" t="n">
-        <v>11.66525152660657</v>
+        <v>12.15837444328711</v>
       </c>
       <c r="O339" t="n">
         <v>1</v>
@@ -48274,13 +48274,13 @@
         <v>1.34515847630125</v>
       </c>
       <c r="L340" t="n">
-        <v>4.760591067522205</v>
+        <v>5.007152525862475</v>
       </c>
       <c r="M340" t="n">
         <v>4.295667345158477</v>
       </c>
       <c r="N340" t="n">
-        <v>11.66525152660657</v>
+        <v>12.15837444328711</v>
       </c>
       <c r="O340" t="n">
         <v>1</v>
@@ -48411,16 +48411,16 @@
         <v>0</v>
       </c>
       <c r="K341" t="n">
-        <v>5.013789526830305</v>
+        <v>4.423412129822995</v>
       </c>
       <c r="L341" t="n">
-        <v>4.56025236740355</v>
+        <v>4.162952010008914</v>
       </c>
       <c r="M341" t="n">
-        <v>13.02955144705855</v>
+        <v>11.84879665304393</v>
       </c>
       <c r="N341" t="n">
-        <v>13.22984719625071</v>
+        <v>12.43524648146145</v>
       </c>
       <c r="O341" t="n">
         <v>0.909378707408905</v>
@@ -48551,16 +48551,16 @@
         <v>0</v>
       </c>
       <c r="K342" t="n">
-        <v>5.206590221052273</v>
+        <v>4.615965470006254</v>
       </c>
       <c r="L342" t="n">
-        <v>4.55952659070271</v>
+        <v>4.162866544306237</v>
       </c>
       <c r="M342" t="n">
-        <v>13.02955144705855</v>
+        <v>11.84830194496651</v>
       </c>
       <c r="N342" t="n">
-        <v>13.22984719625071</v>
+        <v>12.43652710345777</v>
       </c>
       <c r="O342" t="n">
         <v>0.909340739250183</v>
@@ -48831,13 +48831,13 @@
         <v>0</v>
       </c>
       <c r="K344" t="n">
-        <v>5.904112036861131</v>
+        <v>4.999981570025647</v>
       </c>
       <c r="L344" t="n">
         <v>0.7334811585909756</v>
       </c>
       <c r="M344" t="n">
-        <v>13.06869246175337</v>
+        <v>11.26043152808241</v>
       </c>
       <c r="N344" t="n">
         <v>2.480561118871703</v>
@@ -48971,16 +48971,16 @@
         <v>0</v>
       </c>
       <c r="K345" t="n">
-        <v>4.136219019551803</v>
+        <v>3.579194600440505</v>
       </c>
       <c r="L345" t="n">
-        <v>5.147226267061534</v>
+        <v>4.751579734215175</v>
       </c>
       <c r="M345" t="n">
-        <v>11.83312757018891</v>
+        <v>10.71907873196632</v>
       </c>
       <c r="N345" t="n">
-        <v>15.01851868299745</v>
+        <v>14.22722561730473</v>
       </c>
       <c r="O345" t="n">
         <v>0.905853390693665</v>
@@ -49406,16 +49406,16 @@
         <v>0</v>
       </c>
       <c r="K348" t="n">
-        <v>3.833598249209307</v>
+        <v>3.532116754569511</v>
       </c>
       <c r="L348" t="n">
-        <v>0.5818818869615877</v>
+        <v>0.5773210506454289</v>
       </c>
       <c r="M348" t="n">
-        <v>6.029629892795922</v>
+        <v>5.426666903516329</v>
       </c>
       <c r="N348" t="n">
-        <v>0.09121672632317543</v>
+        <v>0.0820950536908579</v>
       </c>
       <c r="O348" t="n">
         <v>0.9</v>
@@ -49546,16 +49546,16 @@
         <v>0</v>
       </c>
       <c r="K349" t="n">
-        <v>4.962155137332847</v>
+        <v>4.403954967509417</v>
       </c>
       <c r="L349" t="n">
-        <v>5.147225774059793</v>
+        <v>4.751579241213434</v>
       </c>
       <c r="M349" t="n">
-        <v>11.83312757018891</v>
+        <v>10.71672723054206</v>
       </c>
       <c r="N349" t="n">
-        <v>15.01851868299745</v>
+        <v>14.22722561730473</v>
       </c>
       <c r="O349" t="n">
         <v>0.905654668807983</v>
@@ -49689,13 +49689,13 @@
         <v>1.464202063682978</v>
       </c>
       <c r="L350" t="n">
-        <v>5.276886960346911</v>
+        <v>5.00727360085674</v>
       </c>
       <c r="M350" t="n">
         <v>4.67582452364373</v>
       </c>
       <c r="N350" t="n">
-        <v>12.69760081028043</v>
+        <v>12.15837409130009</v>
       </c>
       <c r="O350" t="n">
         <v>1</v>
@@ -49829,13 +49829,13 @@
         <v>1.464202063682978</v>
       </c>
       <c r="L351" t="n">
-        <v>5.276765730596868</v>
+        <v>5.007152371106698</v>
       </c>
       <c r="M351" t="n">
         <v>4.67582452364373</v>
       </c>
       <c r="N351" t="n">
-        <v>12.69760081028043</v>
+        <v>12.15837409130009</v>
       </c>
       <c r="O351" t="n">
         <v>1</v>
@@ -49966,16 +49966,16 @@
         <v>0</v>
       </c>
       <c r="K352" t="n">
-        <v>5.474268810496625</v>
+        <v>4.212993302595509</v>
       </c>
       <c r="L352" t="n">
-        <v>4.955311695376543</v>
+        <v>4.162951920362736</v>
       </c>
       <c r="M352" t="n">
-        <v>13.80770761475192</v>
+        <v>11.28515659894969</v>
       </c>
       <c r="N352" t="n">
-        <v>14.01996550809233</v>
+        <v>12.43524595806472</v>
       </c>
       <c r="O352" t="n">
         <v>0.817308485507965</v>
@@ -50106,16 +50106,16 @@
         <v>0</v>
       </c>
       <c r="K353" t="n">
-        <v>5.658069702157055</v>
+        <v>4.395781076938157</v>
       </c>
       <c r="L353" t="n">
-        <v>4.954585670637247</v>
+        <v>4.162866425229893</v>
       </c>
       <c r="M353" t="n">
-        <v>13.80770761475192</v>
+        <v>11.28313036431413</v>
       </c>
       <c r="N353" t="n">
-        <v>14.01996550809233</v>
+        <v>12.43652701727763</v>
       </c>
       <c r="O353" t="n">
         <v>0.817161738872528</v>
@@ -50386,13 +50386,13 @@
         <v>0</v>
       </c>
       <c r="K355" t="n">
-        <v>7.154174036636835</v>
+        <v>4.999981762787947</v>
       </c>
       <c r="L355" t="n">
         <v>0.8738007639021163</v>
       </c>
       <c r="M355" t="n">
-        <v>15.56881635271827</v>
+        <v>11.26043180502049</v>
       </c>
       <c r="N355" t="n">
         <v>2.955108219466471</v>
@@ -50526,16 +50526,16 @@
         <v>0</v>
       </c>
       <c r="K356" t="n">
-        <v>4.572112610244152</v>
+        <v>3.393217408521181</v>
       </c>
       <c r="L356" t="n">
-        <v>5.583048777419197</v>
+        <v>4.751579691972863</v>
       </c>
       <c r="M356" t="n">
-        <v>12.51989888453478</v>
+        <v>10.16210848108884</v>
       </c>
       <c r="N356" t="n">
-        <v>15.89016379577683</v>
+        <v>14.22722562488416</v>
       </c>
       <c r="O356" t="n">
         <v>0.811676561832428</v>
@@ -50961,16 +50961,16 @@
         <v>0</v>
       </c>
       <c r="K359" t="n">
-        <v>3.987177064059968</v>
+        <v>3.349219295742187</v>
       </c>
       <c r="L359" t="n">
-        <v>0.6204786987597209</v>
+        <v>0.6108276222934997</v>
       </c>
       <c r="M359" t="n">
-        <v>6.379577683177806</v>
+        <v>5.103662146542245</v>
       </c>
       <c r="N359" t="n">
-        <v>0.09651076466221231</v>
+        <v>0.07720861172976984</v>
       </c>
       <c r="O359" t="n">
         <v>0.8</v>
@@ -51101,16 +51101,16 @@
         <v>0</v>
       </c>
       <c r="K360" t="n">
-        <v>5.354961140527541</v>
+        <v>4.175912585636751</v>
       </c>
       <c r="L360" t="n">
-        <v>5.583048284417459</v>
+        <v>4.751579198971124</v>
       </c>
       <c r="M360" t="n">
-        <v>12.51989888453478</v>
+        <v>10.1618017747532</v>
       </c>
       <c r="N360" t="n">
-        <v>15.89016379577683</v>
+        <v>14.22722562488416</v>
       </c>
       <c r="O360" t="n">
         <v>0.811652064323425</v>
@@ -51244,13 +51244,13 @@
         <v>1.531767791155084</v>
       </c>
       <c r="L361" t="n">
-        <v>5.569852729291407</v>
+        <v>5.007273820532068</v>
       </c>
       <c r="M361" t="n">
         <v>4.891590839856425</v>
       </c>
       <c r="N361" t="n">
-        <v>13.28353266844148</v>
+        <v>12.1583748509228</v>
       </c>
       <c r="O361" t="n">
         <v>1</v>
@@ -51384,13 +51384,13 @@
         <v>1.531767791155084</v>
       </c>
       <c r="L362" t="n">
-        <v>5.569731499533789</v>
+        <v>5.007152590774451</v>
       </c>
       <c r="M362" t="n">
         <v>4.891590839856425</v>
       </c>
       <c r="N362" t="n">
-        <v>13.28353266844148</v>
+        <v>12.1583748509228</v>
       </c>
       <c r="O362" t="n">
         <v>1</v>
@@ -51521,16 +51521,16 @@
         <v>0</v>
       </c>
       <c r="K363" t="n">
-        <v>5.66453964071068</v>
+        <v>4.052008456364779</v>
       </c>
       <c r="L363" t="n">
-        <v>5.093041082146023</v>
+        <v>4.1629519364014</v>
       </c>
       <c r="M363" t="n">
-        <v>14.07899631395624</v>
+        <v>10.85393394526444</v>
       </c>
       <c r="N363" t="n">
-        <v>14.2954245713706</v>
+        <v>12.43524627988136</v>
       </c>
       <c r="O363" t="n">
         <v>0.7709309458732611</v>
@@ -51661,16 +51661,16 @@
         <v>0</v>
       </c>
       <c r="K364" t="n">
-        <v>5.841121129069519</v>
+        <v>4.228504349019056</v>
       </c>
       <c r="L364" t="n">
-        <v>5.09231528004091</v>
+        <v>4.162866467684458</v>
       </c>
       <c r="M364" t="n">
-        <v>14.07899631395624</v>
+        <v>10.85376275385531</v>
       </c>
       <c r="N364" t="n">
-        <v>14.2954245713706</v>
+        <v>12.4365269466577</v>
       </c>
       <c r="O364" t="n">
         <v>0.770918786525726</v>
@@ -51941,13 +51941,13 @@
         <v>0</v>
       </c>
       <c r="K366" t="n">
-        <v>7.97748662434851</v>
+        <v>4.999981578520244</v>
       </c>
       <c r="L366" t="n">
         <v>0.9662177142223699</v>
       </c>
       <c r="M366" t="n">
-        <v>17.2154417470347</v>
+        <v>11.26043165537817</v>
       </c>
       <c r="N366" t="n">
         <v>3.267653253519565</v>
@@ -52081,16 +52081,16 @@
         <v>0</v>
       </c>
       <c r="K367" t="n">
-        <v>4.743039411381899</v>
+        <v>3.246822180492321</v>
       </c>
       <c r="L367" t="n">
-        <v>5.707566279213617</v>
+        <v>4.751579489258874</v>
       </c>
       <c r="M367" t="n">
-        <v>12.71611419190425</v>
+        <v>9.72367973012509</v>
       </c>
       <c r="N367" t="n">
-        <v>16.13919882410209</v>
+        <v>14.2272252441926</v>
       </c>
       <c r="O367" t="n">
         <v>0.764673829078674</v>
@@ -52516,16 +52516,16 @@
         <v>0</v>
       </c>
       <c r="K370" t="n">
-        <v>5.491884877338057</v>
+        <v>3.996802660803807</v>
       </c>
       <c r="L370" t="n">
-        <v>5.707565786211891</v>
+        <v>4.751578996257147</v>
       </c>
       <c r="M370" t="n">
-        <v>12.71611419190425</v>
+        <v>9.725949758835748</v>
       </c>
       <c r="N370" t="n">
-        <v>16.13919882410209</v>
+        <v>14.2272252441926</v>
       </c>
       <c r="O370" t="n">
         <v>0.7648523449897771</v>
@@ -52656,16 +52656,16 @@
         <v>0</v>
       </c>
       <c r="K371" t="n">
-        <v>4.015512241423657</v>
+        <v>3.205567218468832</v>
       </c>
       <c r="L371" t="n">
-        <v>0.6326535947076786</v>
+        <v>0.6204006812106231</v>
       </c>
       <c r="M371" t="n">
-        <v>6.479560183638602</v>
+        <v>4.859670137728952</v>
       </c>
       <c r="N371" t="n">
-        <v>0.09802330797644386</v>
+        <v>0.07351748098233289</v>
       </c>
       <c r="O371" t="n">
         <v>0.75</v>
@@ -52799,13 +52799,13 @@
         <v>1.568029286150092</v>
       </c>
       <c r="L372" t="n">
-        <v>5.727083103539615</v>
+        <v>5.00727367289311</v>
       </c>
       <c r="M372" t="n">
         <v>5.007389329536981</v>
       </c>
       <c r="N372" t="n">
-        <v>13.59799335638262</v>
+        <v>12.15837449508961</v>
       </c>
       <c r="O372" t="n">
         <v>1</v>
@@ -52939,13 +52939,13 @@
         <v>1.568029286150092</v>
       </c>
       <c r="L373" t="n">
-        <v>5.726961873785545</v>
+        <v>5.007152443139042</v>
       </c>
       <c r="M373" t="n">
         <v>5.007389329536981</v>
       </c>
       <c r="N373" t="n">
-        <v>13.59799335638262</v>
+        <v>12.15837449508961</v>
       </c>
       <c r="O373" t="n">
         <v>1</v>
@@ -53076,16 +53076,16 @@
         <v>0</v>
       </c>
       <c r="K374" t="n">
-        <v>6.020735179028113</v>
+        <v>3.923866077828757</v>
       </c>
       <c r="L374" t="n">
-        <v>5.41056126786637</v>
+        <v>4.162952149536855</v>
       </c>
       <c r="M374" t="n">
-        <v>14.70442284089605</v>
+        <v>10.51068463849733</v>
       </c>
       <c r="N374" t="n">
-        <v>14.93046541813462</v>
+        <v>12.43524718147559</v>
       </c>
       <c r="O374" t="n">
         <v>0.714797496795654</v>
@@ -53216,16 +53216,16 @@
         <v>0</v>
       </c>
       <c r="K375" t="n">
-        <v>6.191732318168491</v>
+        <v>4.094780392264582</v>
       </c>
       <c r="L375" t="n">
-        <v>5.409835502395691</v>
+        <v>4.162866685166689</v>
       </c>
       <c r="M375" t="n">
-        <v>14.70442284089605</v>
+        <v>10.51051898908823</v>
       </c>
       <c r="N375" t="n">
-        <v>14.93046541813462</v>
+        <v>12.43652778367662</v>
       </c>
       <c r="O375" t="n">
         <v>0.714786231517792</v>
@@ -53496,16 +53496,16 @@
         <v>0</v>
       </c>
       <c r="K377" t="n">
-        <v>9.015280473827334</v>
+        <v>4.999981577369537</v>
       </c>
       <c r="L377" t="n">
-        <v>1.100948174298302</v>
+        <v>1.056314729330297</v>
       </c>
       <c r="M377" t="n">
-        <v>19.29102901719169</v>
+        <v>11.2604312242761</v>
       </c>
       <c r="N377" t="n">
-        <v>3.661619298419954</v>
+        <v>3.572352408483945</v>
       </c>
       <c r="O377" t="n">
         <v>0.583713352680206</v>
@@ -53636,16 +53636,16 @@
         <v>0</v>
       </c>
       <c r="K378" t="n">
-        <v>5.103372274187192</v>
+        <v>3.174028604249938</v>
       </c>
       <c r="L378" t="n">
-        <v>6.118942424298589</v>
+        <v>4.751579731007568</v>
       </c>
       <c r="M378" t="n">
-        <v>13.36436316945701</v>
+        <v>9.505675829582502</v>
       </c>
       <c r="N378" t="n">
-        <v>16.96195166969274</v>
+        <v>14.2272262831107</v>
       </c>
       <c r="O378" t="n">
         <v>0.711270391941071</v>
@@ -54071,16 +54071,16 @@
         <v>0</v>
       </c>
       <c r="K381" t="n">
-        <v>4.154354369347439</v>
+        <v>3.13287256092324</v>
       </c>
       <c r="L381" t="n">
-        <v>0.6404969432045482</v>
+        <v>0.6250438841910161</v>
       </c>
       <c r="M381" t="n">
-        <v>6.809878722827996</v>
+        <v>4.766915105979596</v>
       </c>
       <c r="N381" t="n">
-        <v>0.1030203934235472</v>
+        <v>0.07211427539648306</v>
       </c>
       <c r="O381" t="n">
         <v>0.7</v>
@@ -54211,16 +54211,16 @@
         <v>0</v>
       </c>
       <c r="K382" t="n">
-        <v>5.835652145996194</v>
+        <v>3.906164693708392</v>
       </c>
       <c r="L382" t="n">
-        <v>6.118941931296824</v>
+        <v>4.751579238005802</v>
       </c>
       <c r="M382" t="n">
-        <v>13.36436316945701</v>
+        <v>9.505388264881409</v>
       </c>
       <c r="N382" t="n">
-        <v>16.96195166969274</v>
+        <v>14.2272262831107</v>
       </c>
       <c r="O382" t="n">
         <v>0.711248874664307</v>
@@ -54351,16 +54351,16 @@
         <v>0</v>
       </c>
       <c r="K383" t="n">
-        <v>1.664383344339025</v>
+        <v>1.612826661398283</v>
       </c>
       <c r="L383" t="n">
-        <v>6.061331547884615</v>
+        <v>5.007273686224448</v>
       </c>
       <c r="M383" t="n">
-        <v>5.253559794591673</v>
+        <v>5.150446428710188</v>
       </c>
       <c r="N383" t="n">
-        <v>14.26649027724434</v>
+        <v>12.15837455392401</v>
       </c>
       <c r="O383" t="n">
         <v>0.980372667312622</v>
@@ -54491,16 +54491,16 @@
         <v>0</v>
       </c>
       <c r="K384" t="n">
-        <v>1.664383344339025</v>
+        <v>1.612826661398283</v>
       </c>
       <c r="L384" t="n">
-        <v>6.061210318129959</v>
+        <v>5.007152456469793</v>
       </c>
       <c r="M384" t="n">
-        <v>5.253559794591673</v>
+        <v>5.150446428710188</v>
       </c>
       <c r="N384" t="n">
-        <v>14.26649027724434</v>
+        <v>12.15837455392401</v>
       </c>
       <c r="O384" t="n">
         <v>0.980372667312622</v>
@@ -55189,16 +55189,16 @@
         <v>0</v>
       </c>
       <c r="K389" t="n">
-        <v>1.604129445980484</v>
+        <v>1.912107693763134</v>
       </c>
       <c r="L389" t="n">
-        <v>2.689256485338459</v>
+        <v>2.902258241044268</v>
       </c>
       <c r="M389" t="n">
-        <v>4.447818653531162</v>
+        <v>5.063775149096463</v>
       </c>
       <c r="N389" t="n">
-        <v>4.535893481267162</v>
+        <v>4.961896992678782</v>
       </c>
       <c r="O389" t="n">
         <v>1.13848507404327</v>
@@ -55329,16 +55329,16 @@
         <v>0</v>
       </c>
       <c r="K390" t="n">
-        <v>2.986135234422751</v>
+        <v>3.534039371077528</v>
       </c>
       <c r="L390" t="n">
-        <v>4.50918984830073</v>
+        <v>4.99997758844353</v>
       </c>
       <c r="M390" t="n">
-        <v>7.912825846972976</v>
+        <v>9.00863412028253</v>
       </c>
       <c r="N390" t="n">
-        <v>10.45137352893119</v>
+        <v>11.43294900921679</v>
       </c>
       <c r="O390" t="n">
         <v>1.13848507404327</v>
@@ -55469,16 +55469,16 @@
         <v>0</v>
       </c>
       <c r="K391" t="n">
-        <v>3.121548152097266</v>
+        <v>3.694567771752045</v>
       </c>
       <c r="L391" t="n">
-        <v>4.711565925353694</v>
+        <v>5.250437605172541</v>
       </c>
       <c r="M391" t="n">
-        <v>8.273613327721778</v>
+        <v>9.419652567031335</v>
       </c>
       <c r="N391" t="n">
-        <v>10.92790679262108</v>
+        <v>12.00565015225877</v>
       </c>
       <c r="O391" t="n">
         <v>1.13851737976074</v>
@@ -56027,16 +56027,16 @@
         <v>0</v>
       </c>
       <c r="K395" t="n">
-        <v>4.505457577317937</v>
+        <v>4.857512940135689</v>
       </c>
       <c r="L395" t="n">
-        <v>2.680387836847786</v>
+        <v>2.935272544815287</v>
       </c>
       <c r="M395" t="n">
-        <v>5.083194086198491</v>
+        <v>5.787304811833994</v>
       </c>
       <c r="N395" t="n">
-        <v>5.168867535346548</v>
+        <v>5.67863695128155</v>
       </c>
       <c r="O395" t="n">
         <v>1.13851737976074</v>
@@ -56462,13 +56462,13 @@
         <v>0</v>
       </c>
       <c r="K398" t="n">
-        <v>4.536655481519593</v>
+        <v>5.0000000266103</v>
       </c>
       <c r="L398" t="n">
         <v>0.4363396475355762</v>
       </c>
       <c r="M398" t="n">
-        <v>10.4841516665096</v>
+        <v>11.41084075669101</v>
       </c>
       <c r="N398" t="n">
         <v>1.564665598592655</v>
@@ -56602,16 +56602,16 @@
         <v>0</v>
       </c>
       <c r="K399" t="n">
-        <v>3.890566153335413</v>
+        <v>3.227295494902582</v>
       </c>
       <c r="L399" t="n">
-        <v>5.592539885085114</v>
+        <v>4.999977885790062</v>
       </c>
       <c r="M399" t="n">
-        <v>9.553253526819223</v>
+        <v>8.226712209953559</v>
       </c>
       <c r="N399" t="n">
-        <v>12.61807386593275</v>
+        <v>11.43294986734265</v>
       </c>
       <c r="O399" t="n">
         <v>0.861142456531525</v>
@@ -56742,16 +56742,16 @@
         <v>0</v>
       </c>
       <c r="K400" t="n">
-        <v>2.118968580648612</v>
+        <v>1.74614253038921</v>
       </c>
       <c r="L400" t="n">
-        <v>3.159430139506174</v>
+        <v>2.902258380941735</v>
       </c>
       <c r="M400" t="n">
-        <v>5.369907042090879</v>
+        <v>4.624254941572074</v>
       </c>
       <c r="N400" t="n">
-        <v>5.47624088223407</v>
+        <v>4.961897365105189</v>
       </c>
       <c r="O400" t="n">
         <v>0.861142456531525</v>
@@ -57160,16 +57160,16 @@
         <v>0</v>
       </c>
       <c r="K403" t="n">
-        <v>3.409148999210002</v>
+        <v>3.227274829191333</v>
       </c>
       <c r="L403" t="n">
-        <v>7.967809745714746</v>
+        <v>7.938960075782683</v>
       </c>
       <c r="M403" t="n">
-        <v>3.637483400373371</v>
+        <v>3.273735060336034</v>
       </c>
       <c r="N403" t="n">
-        <v>0.5769933986412363</v>
+        <v>0.5192940587771127</v>
       </c>
       <c r="O403" t="n">
         <v>0.9</v>
@@ -57440,16 +57440,16 @@
         <v>0</v>
       </c>
       <c r="K405" t="n">
-        <v>4.104153665711362</v>
+        <v>3.405137082623262</v>
       </c>
       <c r="L405" t="n">
-        <v>5.904354377563513</v>
+        <v>5.250437605055204</v>
       </c>
       <c r="M405" t="n">
-        <v>10.07975428977561</v>
+        <v>8.681721123599413</v>
       </c>
       <c r="N405" t="n">
-        <v>13.31348360239618</v>
+        <v>12.00565005737956</v>
       </c>
       <c r="O405" t="n">
         <v>0.861302852630615</v>
@@ -57720,16 +57720,16 @@
         <v>0</v>
       </c>
       <c r="K407" t="n">
-        <v>4.906443799422743</v>
+        <v>4.476977637473581</v>
       </c>
       <c r="L407" t="n">
-        <v>3.244573258944641</v>
+        <v>2.935272562994424</v>
       </c>
       <c r="M407" t="n">
-        <v>6.192862219514671</v>
+        <v>5.333929895616349</v>
       </c>
       <c r="N407" t="n">
-        <v>6.297238298304397</v>
+        <v>5.678636906403963</v>
       </c>
       <c r="O407" t="n">
         <v>0.861302852630615</v>
@@ -58138,16 +58138,16 @@
         <v>0</v>
       </c>
       <c r="K410" t="n">
-        <v>3.587874899553589</v>
+        <v>3.405115228520997</v>
       </c>
       <c r="L410" t="n">
-        <v>7.716045656470403</v>
+        <v>7.678326091032288</v>
       </c>
       <c r="M410" t="n">
-        <v>3.655193420651843</v>
+        <v>3.289674078586659</v>
       </c>
       <c r="N410" t="n">
-        <v>0.754391308762311</v>
+        <v>0.6789521778860799</v>
       </c>
       <c r="O410" t="n">
         <v>0.9</v>
@@ -58433,13 +58433,13 @@
         <v>0</v>
       </c>
       <c r="K412" t="n">
-        <v>5.554511030741542</v>
+        <v>4.999999858330173</v>
       </c>
       <c r="L412" t="n">
         <v>0.5210638856585512</v>
       </c>
       <c r="M412" t="n">
-        <v>12.51986345050081</v>
+        <v>11.41084110567807</v>
       </c>
       <c r="N412" t="n">
         <v>1.868477323029598</v>
@@ -58573,16 +58573,16 @@
         <v>0</v>
       </c>
       <c r="K413" t="n">
-        <v>2.864391206990709</v>
+        <v>3.575507512201979</v>
       </c>
       <c r="L413" t="n">
-        <v>4.3634260275063</v>
+        <v>4.999977589528322</v>
       </c>
       <c r="M413" t="n">
-        <v>7.692108026018603</v>
+        <v>9.114340636441144</v>
       </c>
       <c r="N413" t="n">
-        <v>10.15984627483796</v>
+        <v>11.43294939888201</v>
       </c>
       <c r="O413" t="n">
         <v>1.18489503860474</v>
@@ -58713,16 +58713,16 @@
         <v>0</v>
       </c>
       <c r="K414" t="n">
-        <v>1.53482402732899</v>
+        <v>1.934544232008942</v>
       </c>
       <c r="L414" t="n">
-        <v>2.625994952916106</v>
+        <v>2.902258170633231</v>
       </c>
       <c r="M414" t="n">
-        <v>4.323752629560325</v>
+        <v>5.123193038920228</v>
       </c>
       <c r="N414" t="n">
-        <v>4.409370726359139</v>
+        <v>4.96189716179339</v>
       </c>
       <c r="O414" t="n">
         <v>1.18489503860474</v>
@@ -59411,16 +59411,16 @@
         <v>0</v>
       </c>
       <c r="K419" t="n">
-        <v>2.991285981301719</v>
+        <v>3.733468896524024</v>
       </c>
       <c r="L419" t="n">
-        <v>4.553633134921704</v>
+        <v>5.250437450780197</v>
       </c>
       <c r="M419" t="n">
-        <v>8.034468525922209</v>
+        <v>9.518834356366819</v>
       </c>
       <c r="N419" t="n">
-        <v>10.61204091872906</v>
+        <v>12.00564955044604</v>
       </c>
       <c r="O419" t="n">
         <v>1.18474972248077</v>
@@ -59829,16 +59829,16 @@
         <v>0</v>
       </c>
       <c r="K422" t="n">
-        <v>4.452672032589279</v>
+        <v>4.908658994524616</v>
       </c>
       <c r="L422" t="n">
-        <v>2.60568612959006</v>
+        <v>2.935272506476283</v>
       </c>
       <c r="M422" t="n">
-        <v>4.936266813421602</v>
+        <v>5.848240737292278</v>
       </c>
       <c r="N422" t="n">
-        <v>5.019463912853467</v>
+        <v>5.678636666625913</v>
       </c>
       <c r="O422" t="n">
         <v>1.18474972248077</v>
@@ -60404,13 +60404,13 @@
         <v>0</v>
       </c>
       <c r="K426" t="n">
-        <v>4.398479989332585</v>
+        <v>4.999999920047039</v>
       </c>
       <c r="L426" t="n">
         <v>0.4248382005701212</v>
       </c>
       <c r="M426" t="n">
-        <v>10.20780062884618</v>
+        <v>11.41084049027509</v>
       </c>
       <c r="N426" t="n">
         <v>1.523422684952959</v>
@@ -60544,16 +60544,16 @@
         <v>0</v>
       </c>
       <c r="K427" t="n">
-        <v>1.433918611092243</v>
+        <v>2.005776230006794</v>
       </c>
       <c r="L427" t="n">
-        <v>2.546637672694631</v>
+        <v>2.902258253318828</v>
       </c>
       <c r="M427" t="n">
-        <v>4.168120077233055</v>
+        <v>5.311835315062156</v>
       </c>
       <c r="N427" t="n">
-        <v>4.25065636892602</v>
+        <v>4.961897530174414</v>
       </c>
       <c r="O427" t="n">
         <v>1.27439594268799</v>
@@ -60684,16 +60684,16 @@
         <v>0</v>
       </c>
       <c r="K428" t="n">
-        <v>2.689806978310754</v>
+        <v>3.707161798778319</v>
       </c>
       <c r="L428" t="n">
-        <v>4.180575093292286</v>
+        <v>4.999977827952748</v>
       </c>
       <c r="M428" t="n">
-        <v>7.415232240692259</v>
+        <v>9.449941881627387</v>
       </c>
       <c r="N428" t="n">
-        <v>9.79414477836578</v>
+        <v>11.4329502476867</v>
       </c>
       <c r="O428" t="n">
         <v>1.27439594268799</v>
@@ -61382,16 +61382,16 @@
         <v>0</v>
       </c>
       <c r="K433" t="n">
-        <v>2.684437437451556</v>
+        <v>3.700903755454721</v>
       </c>
       <c r="L433" t="n">
-        <v>4.136523382218058</v>
+        <v>5.250437629418721</v>
       </c>
       <c r="M433" t="n">
-        <v>7.402873888922032</v>
+        <v>9.43580652492836</v>
       </c>
       <c r="N433" t="n">
-        <v>9.777821690628169</v>
+        <v>12.0056501850295</v>
       </c>
       <c r="O433" t="n">
         <v>1.27461397647858</v>
@@ -61522,16 +61522,16 @@
         <v>0</v>
       </c>
       <c r="K434" t="n">
-        <v>4.241340375435669</v>
+        <v>4.865843282669841</v>
       </c>
       <c r="L434" t="n">
-        <v>2.408394424157986</v>
+        <v>2.935272562741973</v>
       </c>
       <c r="M434" t="n">
-        <v>4.548223766628885</v>
+        <v>5.797229581097227</v>
       </c>
       <c r="N434" t="n">
-        <v>4.624880689614032</v>
+        <v>5.678636966782006</v>
       </c>
       <c r="O434" t="n">
         <v>1.27461397647858</v>
@@ -62375,13 +62375,13 @@
         <v>0</v>
       </c>
       <c r="K440" t="n">
-        <v>4.216679398233435</v>
+        <v>4.999999935513571</v>
       </c>
       <c r="L440" t="n">
         <v>0.4097055075746849</v>
       </c>
       <c r="M440" t="n">
-        <v>9.844199820661665</v>
+        <v>11.41084089522194</v>
       </c>
       <c r="N440" t="n">
         <v>1.469158525650102</v>
@@ -62515,16 +62515,16 @@
         <v>0</v>
       </c>
       <c r="K441" t="n">
-        <v>3.25057092631233</v>
+        <v>3.444538584239911</v>
       </c>
       <c r="L441" t="n">
-        <v>4.826004162528408</v>
+        <v>4.999977730556016</v>
       </c>
       <c r="M441" t="n">
-        <v>8.392552202214894</v>
+        <v>8.780487518070059</v>
       </c>
       <c r="N441" t="n">
-        <v>11.08500295882999</v>
+        <v>11.43295009488521</v>
       </c>
       <c r="O441" t="n">
         <v>1.04622375965118</v>
@@ -62655,16 +62655,16 @@
         <v>0</v>
       </c>
       <c r="K442" t="n">
-        <v>1.754653164263927</v>
+        <v>1.86368285653778</v>
       </c>
       <c r="L442" t="n">
-        <v>2.826753699217947</v>
+        <v>2.902258183958137</v>
       </c>
       <c r="M442" t="n">
-        <v>4.717474004565052</v>
+        <v>4.935533389112756</v>
       </c>
       <c r="N442" t="n">
-        <v>4.810888494378223</v>
+        <v>4.961897463858604</v>
       </c>
       <c r="O442" t="n">
         <v>1.04622375965118</v>
@@ -63353,16 +63353,16 @@
         <v>0</v>
       </c>
       <c r="K447" t="n">
-        <v>3.407499223334509</v>
+        <v>3.610910835727029</v>
       </c>
       <c r="L447" t="n">
-        <v>5.058890229798117</v>
+        <v>5.250437191772198</v>
       </c>
       <c r="M447" t="n">
-        <v>8.799537311977591</v>
+        <v>9.206360536762633</v>
       </c>
       <c r="N447" t="n">
-        <v>11.62255471152909</v>
+        <v>12.00564863547724</v>
       </c>
       <c r="O447" t="n">
         <v>1.04623234272003</v>
@@ -63493,16 +63493,16 @@
         <v>0</v>
       </c>
       <c r="K448" t="n">
-        <v>4.622549793069917</v>
+        <v>4.747523086384613</v>
       </c>
       <c r="L448" t="n">
-        <v>2.844671278418451</v>
+        <v>2.935272423910526</v>
       </c>
       <c r="M448" t="n">
-        <v>5.406314539217684</v>
+        <v>5.656261125847077</v>
       </c>
       <c r="N448" t="n">
-        <v>5.497433942864234</v>
+        <v>5.678636233848382</v>
       </c>
       <c r="O448" t="n">
         <v>1.04623234272003</v>
@@ -64346,13 +64346,13 @@
         <v>0</v>
       </c>
       <c r="K454" t="n">
-        <v>4.8377296756385</v>
+        <v>4.999999787717996</v>
       </c>
       <c r="L454" t="n">
         <v>0.4614004783417485</v>
       </c>
       <c r="M454" t="n">
-        <v>11.08630082381079</v>
+        <v>11.41084104796978</v>
       </c>
       <c r="N454" t="n">
         <v>1.654530959340951</v>
@@ -66485,16 +66485,16 @@
         <v>0</v>
       </c>
       <c r="K469" t="n">
-        <v>3.550229312105392</v>
+        <v>3.34369016136045</v>
       </c>
       <c r="L469" t="n">
-        <v>5.185226583079853</v>
+        <v>4.999977737244613</v>
       </c>
       <c r="M469" t="n">
-        <v>8.936492933657394</v>
+        <v>8.52341463216751</v>
       </c>
       <c r="N469" t="n">
-        <v>11.80344765505446</v>
+        <v>11.43294996338398</v>
       </c>
       <c r="O469" t="n">
         <v>0.953776240348816</v>
@@ -66625,16 +66625,16 @@
         <v>0</v>
       </c>
       <c r="K470" t="n">
-        <v>1.925214485545233</v>
+        <v>1.809118326583355</v>
       </c>
       <c r="L470" t="n">
-        <v>2.982656167245668</v>
+        <v>2.902258214774605</v>
       </c>
       <c r="M470" t="n">
-        <v>5.023224412638401</v>
+        <v>4.791032094714644</v>
       </c>
       <c r="N470" t="n">
-        <v>5.122693311729228</v>
+        <v>4.961897406787103</v>
       </c>
       <c r="O470" t="n">
         <v>0.953776240348816</v>
@@ -67323,16 +67323,16 @@
         <v>0</v>
       </c>
       <c r="K475" t="n">
-        <v>4.755208831814916</v>
+        <v>4.621751372957107</v>
       </c>
       <c r="L475" t="n">
-        <v>3.031271596083572</v>
+        <v>2.935272357054628</v>
       </c>
       <c r="M475" t="n">
-        <v>5.773330051965507</v>
+        <v>5.506415134249889</v>
       </c>
       <c r="N475" t="n">
-        <v>5.870635228638768</v>
+        <v>5.67863675058088</v>
       </c>
       <c r="O475" t="n">
         <v>0.953767597675323</v>
@@ -67463,16 +67463,16 @@
         <v>0</v>
       </c>
       <c r="K476" t="n">
-        <v>3.732471103832991</v>
+        <v>3.515250318719194</v>
       </c>
       <c r="L476" t="n">
-        <v>5.453396828956808</v>
+        <v>5.250437335586754</v>
       </c>
       <c r="M476" t="n">
-        <v>9.396906679792137</v>
+        <v>8.962465109564544</v>
       </c>
       <c r="N476" t="n">
-        <v>12.41156871468191</v>
+        <v>12.0056497279418</v>
       </c>
       <c r="O476" t="n">
         <v>0.953767597675323</v>
@@ -68316,13 +68316,13 @@
         <v>0</v>
       </c>
       <c r="K482" t="n">
-        <v>5.174376854366844</v>
+        <v>5.00000001873561</v>
       </c>
       <c r="L482" t="n">
         <v>0.4894222773463375</v>
       </c>
       <c r="M482" t="n">
-        <v>11.75959464982876</v>
+        <v>11.41084097856629</v>
       </c>
       <c r="N482" t="n">
         <v>1.755014023762879</v>
@@ -68456,16 +68456,16 @@
         <v>0</v>
       </c>
       <c r="K483" t="n">
-        <v>3.114745552691654</v>
+        <v>3.491311313924792</v>
       </c>
       <c r="L483" t="n">
-        <v>4.663565259737989</v>
+        <v>4.99997758729208</v>
       </c>
       <c r="M483" t="n">
-        <v>8.146584442174108</v>
+        <v>8.899715964640384</v>
       </c>
       <c r="N483" t="n">
-        <v>10.76012522412739</v>
+        <v>11.43294987923557</v>
       </c>
       <c r="O483" t="n">
         <v>1.09244751930237</v>
@@ -68596,16 +68596,16 @@
         <v>0</v>
       </c>
       <c r="K484" t="n">
-        <v>1.677320938947575</v>
+        <v>1.888989469190111</v>
       </c>
       <c r="L484" t="n">
-        <v>2.756255214767785</v>
+        <v>2.902258080261635</v>
       </c>
       <c r="M484" t="n">
-        <v>4.57921492842284</v>
+        <v>5.002551988907912</v>
       </c>
       <c r="N484" t="n">
-        <v>4.669891639279018</v>
+        <v>4.961897370266716</v>
       </c>
       <c r="O484" t="n">
         <v>1.09244751930237</v>
@@ -69294,16 +69294,16 @@
         <v>0</v>
       </c>
       <c r="K489" t="n">
-        <v>3.2606014050536</v>
+        <v>3.654174392547129</v>
       </c>
       <c r="L489" t="n">
-        <v>4.880567695220478</v>
+        <v>5.250437620982026</v>
       </c>
       <c r="M489" t="n">
-        <v>8.52951916178726</v>
+        <v>9.316665136774319</v>
       </c>
       <c r="N489" t="n">
-        <v>11.26591087760599</v>
+        <v>12.00565072912909</v>
       </c>
       <c r="O489" t="n">
         <v>1.09228491783142</v>
@@ -69434,16 +69434,16 @@
         <v>0</v>
       </c>
       <c r="K490" t="n">
-        <v>4.562598965644481</v>
+        <v>4.804404788961277</v>
       </c>
       <c r="L490" t="n">
-        <v>2.760325070358936</v>
+        <v>2.935272449381316</v>
       </c>
       <c r="M490" t="n">
-        <v>5.240419106370365</v>
+        <v>5.724030753003958</v>
       </c>
       <c r="N490" t="n">
-        <v>5.328742466094742</v>
+        <v>5.6786372241395</v>
       </c>
       <c r="O490" t="n">
         <v>1.09228491783142</v>
@@ -70287,13 +70287,13 @@
         <v>0</v>
       </c>
       <c r="K496" t="n">
-        <v>4.682485752146671</v>
+        <v>4.999999776495025</v>
       </c>
       <c r="L496" t="n">
         <v>0.4484782735039423</v>
       </c>
       <c r="M496" t="n">
-        <v>10.77581252381229</v>
+        <v>11.410840572509</v>
       </c>
       <c r="N496" t="n">
         <v>1.608193365492035</v>
@@ -70427,16 +70427,16 @@
         <v>0</v>
       </c>
       <c r="K497" t="n">
-        <v>3.714628702057035</v>
+        <v>3.287771389654602</v>
       </c>
       <c r="L497" t="n">
-        <v>5.382090061629869</v>
+        <v>4.999977809040538</v>
       </c>
       <c r="M497" t="n">
-        <v>9.234586620032744</v>
+        <v>8.380871995227876</v>
       </c>
       <c r="N497" t="n">
-        <v>12.19717405863968</v>
+        <v>11.43294955346101</v>
       </c>
       <c r="O497" t="n">
         <v>0.9075524806976319</v>
@@ -70567,16 +70567,16 @@
         <v>0</v>
       </c>
       <c r="K498" t="n">
-        <v>2.018800736702262</v>
+        <v>1.778863203232343</v>
       </c>
       <c r="L498" t="n">
-        <v>3.068094983241143</v>
+        <v>2.902258361783264</v>
       </c>
       <c r="M498" t="n">
-        <v>5.190783598749814</v>
+        <v>4.710908531809975</v>
       </c>
       <c r="N498" t="n">
-        <v>5.293570471796398</v>
+        <v>4.96189722888064</v>
       </c>
       <c r="O498" t="n">
         <v>0.9075524806976319</v>
@@ -70845,16 +70845,16 @@
         <v>0</v>
       </c>
       <c r="K500" t="n">
-        <v>3.375653948672106</v>
+        <v>3.287750242763487</v>
       </c>
       <c r="L500" t="n">
-        <v>8.022956136893836</v>
+        <v>8.009012469681453</v>
       </c>
       <c r="M500" t="n">
-        <v>3.516148236344694</v>
+        <v>3.340340824527459</v>
       </c>
       <c r="N500" t="n">
-        <v>0.5577466884953118</v>
+        <v>0.5298593540705462</v>
       </c>
       <c r="O500" t="n">
         <v>0.95</v>
@@ -71265,16 +71265,16 @@
         <v>0</v>
       </c>
       <c r="K503" t="n">
-        <v>4.827844029126696</v>
+        <v>4.55159025486723</v>
       </c>
       <c r="L503" t="n">
-        <v>3.133975042291814</v>
+        <v>2.935272528574217</v>
       </c>
       <c r="M503" t="n">
-        <v>5.975331984658414</v>
+        <v>5.422824436139485</v>
       </c>
       <c r="N503" t="n">
-        <v>6.076041753408017</v>
+        <v>5.678636725972823</v>
       </c>
       <c r="O503" t="n">
         <v>0.907535254955292</v>
@@ -71405,16 +71405,16 @@
         <v>0</v>
       </c>
       <c r="K504" t="n">
-        <v>3.911528425814892</v>
+        <v>3.461886553049835</v>
       </c>
       <c r="L504" t="n">
-        <v>5.670530009508314</v>
+        <v>5.250437497073708</v>
       </c>
       <c r="M504" t="n">
-        <v>9.725693236868789</v>
+        <v>8.826409491338675</v>
       </c>
       <c r="N504" t="n">
-        <v>12.8458347007852</v>
+        <v>12.00564967591599</v>
       </c>
       <c r="O504" t="n">
         <v>0.907535254955292</v>
@@ -71963,16 +71963,16 @@
         <v>0</v>
       </c>
       <c r="K508" t="n">
-        <v>3.550034362519459</v>
+        <v>3.461864331512998</v>
       </c>
       <c r="L508" t="n">
-        <v>7.739233936468594</v>
+        <v>7.721036621735871</v>
       </c>
       <c r="M508" t="n">
-        <v>3.526801240258437</v>
+        <v>3.350461178245514</v>
       </c>
       <c r="N508" t="n">
-        <v>0.7278925893088939</v>
+        <v>0.6914979598434491</v>
       </c>
       <c r="O508" t="n">
         <v>0.95</v>
@@ -72258,13 +72258,13 @@
         <v>0</v>
       </c>
       <c r="K510" t="n">
-        <v>5.357236692356285</v>
+        <v>4.999999843476458</v>
       </c>
       <c r="L510" t="n">
         <v>0.5046431529842611</v>
       </c>
       <c r="M510" t="n">
-        <v>12.12531426661435</v>
+        <v>11.4108405688547</v>
       </c>
       <c r="N510" t="n">
         <v>1.809594396244786</v>
@@ -72398,16 +72398,16 @@
         <v>0</v>
       </c>
       <c r="K511" t="n">
-        <v>4.079450579422048</v>
+        <v>3.163660845383505</v>
       </c>
       <c r="L511" t="n">
-        <v>5.81894518595142</v>
+        <v>4.999977590856556</v>
       </c>
       <c r="M511" t="n">
-        <v>9.896080464124086</v>
+        <v>8.064500996047</v>
       </c>
       <c r="N511" t="n">
-        <v>13.0708845870133</v>
+        <v>11.43294939682357</v>
       </c>
       <c r="O511" t="n">
         <v>0.814918696880341</v>
@@ -72538,16 +72538,16 @@
         <v>0</v>
       </c>
       <c r="K512" t="n">
-        <v>2.226480334167971</v>
+        <v>1.711712697353724</v>
       </c>
       <c r="L512" t="n">
-        <v>3.257689902501382</v>
+        <v>2.902258172339144</v>
       </c>
       <c r="M512" t="n">
-        <v>5.562610897346438</v>
+        <v>4.533075623717944</v>
       </c>
       <c r="N512" t="n">
-        <v>5.672760621224507</v>
+        <v>4.96189716090003</v>
       </c>
       <c r="O512" t="n">
         <v>0.814918696880341</v>
@@ -72956,16 +72956,16 @@
         <v>0</v>
       </c>
       <c r="K515" t="n">
-        <v>3.446241918189438</v>
+        <v>3.163640590411771</v>
       </c>
       <c r="L515" t="n">
-        <v>7.909816787194373</v>
+        <v>7.86498933848128</v>
       </c>
       <c r="M515" t="n">
-        <v>3.768017703702227</v>
+        <v>3.202815048146893</v>
       </c>
       <c r="N515" t="n">
-        <v>0.597699316174565</v>
+        <v>0.5080444187483802</v>
       </c>
       <c r="O515" t="n">
         <v>0.85</v>
@@ -73236,16 +73236,16 @@
         <v>0</v>
       </c>
       <c r="K517" t="n">
-        <v>4.310720508676495</v>
+        <v>3.343623987961101</v>
       </c>
       <c r="L517" t="n">
-        <v>6.15486403385302</v>
+        <v>5.250437438280471</v>
       </c>
       <c r="M517" t="n">
-        <v>10.45908046945785</v>
+        <v>8.524887428027061</v>
       </c>
       <c r="N517" t="n">
-        <v>13.81450304473335</v>
+        <v>12.00564985358825</v>
       </c>
       <c r="O517" t="n">
         <v>0.8150704503059391</v>
@@ -73376,16 +73376,16 @@
         <v>0</v>
       </c>
       <c r="K518" t="n">
-        <v>4.990272723984598</v>
+        <v>4.396101940294217</v>
       </c>
       <c r="L518" t="n">
-        <v>3.363063535559552</v>
+        <v>2.935272435518729</v>
       </c>
       <c r="M518" t="n">
-        <v>6.425915000316063</v>
+        <v>5.237573432935301</v>
       </c>
       <c r="N518" t="n">
-        <v>6.534219010092923</v>
+        <v>5.678636810011276</v>
       </c>
       <c r="O518" t="n">
         <v>0.8150704503059391</v>
@@ -73796,16 +73796,16 @@
         <v>0</v>
       </c>
       <c r="K521" t="n">
-        <v>3.628058588915807</v>
+        <v>3.343602532108878</v>
       </c>
       <c r="L521" t="n">
-        <v>7.691500750987537</v>
+        <v>7.63279218148544</v>
       </c>
       <c r="M521" t="n">
-        <v>3.792747424092375</v>
+        <v>3.223835310478518</v>
       </c>
       <c r="N521" t="n">
-        <v>0.7827809266946206</v>
+        <v>0.6653637876904275</v>
       </c>
       <c r="O521" t="n">
         <v>0.85</v>
@@ -74229,13 +74229,13 @@
         <v>0</v>
       </c>
       <c r="K524" t="n">
-        <v>5.763651025557452</v>
+        <v>4.999999987774407</v>
       </c>
       <c r="L524" t="n">
         <v>0.5384722739114254</v>
       </c>
       <c r="M524" t="n">
-        <v>12.93814353057933</v>
+        <v>11.41084145501324</v>
       </c>
       <c r="N524" t="n">
         <v>1.930901873216722</v>
@@ -74369,16 +74369,16 @@
         <v>0</v>
       </c>
       <c r="K525" t="n">
-        <v>2.341864112964929</v>
+        <v>1.675125469424269</v>
       </c>
       <c r="L525" t="n">
-        <v>3.363264431217094</v>
+        <v>2.902258115470014</v>
       </c>
       <c r="M525" t="n">
-        <v>5.76966024938481</v>
+        <v>4.43618296230349</v>
       </c>
       <c r="N525" t="n">
-        <v>5.883909923695693</v>
+        <v>4.961897292201534</v>
       </c>
       <c r="O525" t="n">
         <v>0.768881142139435</v>
@@ -74509,16 +74509,16 @@
         <v>0</v>
       </c>
       <c r="K526" t="n">
-        <v>4.282190312891752</v>
+        <v>3.096038811954154</v>
       </c>
       <c r="L526" t="n">
-        <v>6.062204739444079</v>
+        <v>4.999977589497184</v>
       </c>
       <c r="M526" t="n">
-        <v>10.26442854484171</v>
+        <v>7.892125542966509</v>
       </c>
       <c r="N526" t="n">
-        <v>13.55740399925557</v>
+        <v>11.43294969936178</v>
       </c>
       <c r="O526" t="n">
         <v>0.768881142139435</v>
@@ -74649,16 +74649,16 @@
         <v>0</v>
       </c>
       <c r="K527" t="n">
-        <v>3.584552567723842</v>
+        <v>3.096018892503096</v>
       </c>
       <c r="L527" t="n">
-        <v>7.490797990032879</v>
+        <v>7.413304658905271</v>
       </c>
       <c r="M527" t="n">
-        <v>3.908269401765959</v>
+        <v>2.931202051324469</v>
       </c>
       <c r="N527" t="n">
-        <v>0.6199466490208648</v>
+        <v>0.4649599867656486</v>
       </c>
       <c r="O527" t="n">
         <v>0.75</v>
@@ -75207,16 +75207,16 @@
         <v>0</v>
       </c>
       <c r="K531" t="n">
-        <v>5.080222434051167</v>
+        <v>4.307869843853808</v>
       </c>
       <c r="L531" t="n">
-        <v>3.490802425777216</v>
+        <v>2.935272630251774</v>
       </c>
       <c r="M531" t="n">
-        <v>6.677157854980759</v>
+        <v>5.132452674586042</v>
       </c>
       <c r="N531" t="n">
-        <v>6.789696375887417</v>
+        <v>5.678636784836534</v>
       </c>
       <c r="O531" t="n">
         <v>0.76865828037262</v>
@@ -75347,16 +75347,16 @@
         <v>0</v>
       </c>
       <c r="K532" t="n">
-        <v>4.533628130572474</v>
+        <v>3.276515658454333</v>
       </c>
       <c r="L532" t="n">
-        <v>6.424926576957267</v>
+        <v>5.250437622749841</v>
       </c>
       <c r="M532" t="n">
-        <v>10.86801355279075</v>
+        <v>8.353788608554463</v>
       </c>
       <c r="N532" t="n">
-        <v>14.35462770877921</v>
+        <v>12.00564980036436</v>
       </c>
       <c r="O532" t="n">
         <v>0.76865828037262</v>
@@ -75905,16 +75905,16 @@
         <v>0</v>
       </c>
       <c r="K536" t="n">
-        <v>3.670598486927966</v>
+        <v>3.276494717215935</v>
       </c>
       <c r="L536" t="n">
-        <v>7.664986101250403</v>
+        <v>7.583647462112615</v>
       </c>
       <c r="M536" t="n">
-        <v>3.941037697120305</v>
+        <v>3.152830157696244</v>
       </c>
       <c r="N536" t="n">
-        <v>0.8133863913778852</v>
+        <v>0.6507091131023082</v>
       </c>
       <c r="O536" t="n">
         <v>0.8</v>
@@ -76045,13 +76045,13 @@
         <v>0</v>
       </c>
       <c r="K537" t="n">
-        <v>5.987195127150233</v>
+        <v>5.000000165331996</v>
       </c>
       <c r="L537" t="n">
         <v>0.5570796034267013</v>
       </c>
       <c r="M537" t="n">
-        <v>13.38523117399814</v>
+        <v>11.41084125036167</v>
       </c>
       <c r="N537" t="n">
         <v>1.997625693842846</v>
@@ -76340,16 +76340,16 @@
         <v>0</v>
       </c>
       <c r="K539" t="n">
-        <v>4.479676694935371</v>
+        <v>3.008211177751412</v>
       </c>
       <c r="L539" t="n">
-        <v>6.291198670861956</v>
+        <v>4.999977692599185</v>
       </c>
       <c r="M539" t="n">
-        <v>10.61117494588889</v>
+        <v>7.668243911520975</v>
       </c>
       <c r="N539" t="n">
-        <v>14.01539160409374</v>
+        <v>11.4329496475682</v>
       </c>
       <c r="O539" t="n">
         <v>0.722657382488251</v>
@@ -76620,16 +76620,16 @@
         <v>0</v>
       </c>
       <c r="K541" t="n">
-        <v>2.454720257349349</v>
+        <v>1.62760591135848</v>
       </c>
       <c r="L541" t="n">
-        <v>3.462647807680586</v>
+        <v>2.902258228075113</v>
       </c>
       <c r="M541" t="n">
-        <v>5.964567244742538</v>
+        <v>4.310338552760801</v>
       </c>
       <c r="N541" t="n">
-        <v>6.082676428934079</v>
+        <v>4.961897269723134</v>
       </c>
       <c r="O541" t="n">
         <v>0.722657382488251</v>
@@ -76760,16 +76760,16 @@
         <v>0</v>
       </c>
       <c r="K542" t="n">
-        <v>3.715243634066077</v>
+        <v>3.008191821009935</v>
       </c>
       <c r="L542" t="n">
-        <v>7.11761216364268</v>
+        <v>7.005456537423509</v>
       </c>
       <c r="M542" t="n">
-        <v>4.040296074606525</v>
+        <v>2.626192448494242</v>
       </c>
       <c r="N542" t="n">
-        <v>0.6408892926809716</v>
+        <v>0.4165780402426316</v>
       </c>
       <c r="O542" t="n">
         <v>0.65</v>
@@ -77178,16 +77178,16 @@
         <v>0</v>
       </c>
       <c r="K545" t="n">
-        <v>5.177090468989042</v>
+        <v>4.212834286136816</v>
       </c>
       <c r="L545" t="n">
-        <v>3.628372674658271</v>
+        <v>2.935272507843057</v>
       </c>
       <c r="M545" t="n">
-        <v>6.947738327125266</v>
+        <v>5.019225961420817</v>
       </c>
       <c r="N545" t="n">
-        <v>7.064837280297076</v>
+        <v>5.67863694666665</v>
       </c>
       <c r="O545" t="n">
         <v>0.722425878047943</v>
@@ -77318,16 +77318,16 @@
         <v>0</v>
       </c>
       <c r="K546" t="n">
-        <v>4.77369530050442</v>
+        <v>3.204232740055421</v>
       </c>
       <c r="L546" t="n">
-        <v>6.715774793305619</v>
+        <v>5.250437566318825</v>
       </c>
       <c r="M546" t="n">
-        <v>11.30842132841244</v>
+        <v>8.169496207514445</v>
       </c>
       <c r="N546" t="n">
-        <v>14.93632459647564</v>
+        <v>12.00565014250205</v>
       </c>
       <c r="O546" t="n">
         <v>0.722425878047943</v>
@@ -77458,16 +77458,16 @@
         <v>0</v>
       </c>
       <c r="K547" t="n">
-        <v>3.502888731935724</v>
+        <v>3.20421236018072</v>
       </c>
       <c r="L547" t="n">
-        <v>0.2091520566885663</v>
+        <v>0.2066318092771595</v>
       </c>
       <c r="M547" t="n">
-        <v>5.973527435100069</v>
+        <v>5.376174691590062</v>
       </c>
       <c r="N547" t="n">
-        <v>0.05040494822813792</v>
+        <v>0.04536445340532413</v>
       </c>
       <c r="O547" t="n">
         <v>0.9</v>
@@ -77738,16 +77738,16 @@
         <v>0</v>
       </c>
       <c r="K549" t="n">
-        <v>3.716804963854732</v>
+        <v>3.204212270009261</v>
       </c>
       <c r="L549" t="n">
-        <v>7.636784101237853</v>
+        <v>7.530990664702525</v>
       </c>
       <c r="M549" t="n">
-        <v>4.100741550763764</v>
+        <v>3.075556163072823</v>
       </c>
       <c r="N549" t="n">
-        <v>0.8463474922826322</v>
+        <v>0.6347606192119741</v>
       </c>
       <c r="O549" t="n">
         <v>0.75</v>
@@ -78171,16 +78171,16 @@
         <v>0</v>
       </c>
       <c r="K552" t="n">
-        <v>6.195892797220327</v>
+        <v>4.999999869140371</v>
       </c>
       <c r="L552" t="n">
-        <v>0.5735329646311247</v>
+        <v>0.5756091862214409</v>
       </c>
       <c r="M552" t="n">
-        <v>13.80262700789095</v>
+        <v>11.41084115173104</v>
       </c>
       <c r="N552" t="n">
-        <v>2.059918278218002</v>
+        <v>2.064070721398635</v>
       </c>
       <c r="O552" t="n">
         <v>0.826715171337128</v>
